--- a/Sample ID Builder.xlsx
+++ b/Sample ID Builder.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26216"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\lifescience09\Analytical Chemistry\Analytical Chemistry Results Data\ZZ_LCMS_Form\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\h\Documents\GitHub\xlsx-tools\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{37DEACBC-0E80-45F0-9914-DE719F511A44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C3D9993-FF1B-49B4-A899-AAA3FC7DAE02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{E6910854-DE34-43F7-8FDD-3C4032F4034F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E6910854-DE34-43F7-8FDD-3C4032F4034F}"/>
   </bookViews>
   <sheets>
     <sheet name="PasteValuesHere" sheetId="1" r:id="rId1"/>
@@ -39,12 +39,6 @@
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="29">
-  <si>
-    <t>IITRI PROJECT NUMBER:</t>
-  </si>
-  <si>
-    <t>XXXX00100101</t>
-  </si>
   <si>
     <t>Sample #</t>
   </si>
@@ -127,12 +121,18 @@
   <si>
     <t>Add Time of Collection Column - HH:MM</t>
   </si>
+  <si>
+    <t>PROJECT NUMBER:</t>
+  </si>
+  <si>
+    <t>ABC-001</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -579,12 +579,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7E09713-52D2-4AD0-B45D-7CB60E5B4E28}">
   <dimension ref="A1:X404"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B2" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="4" width="14" customWidth="1"/>
@@ -607,9 +607,9 @@
     <col min="24" max="24" width="37" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="32.25" customHeight="1">
+    <row r="1" spans="1:24" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="18" t="s">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="B1" s="18"/>
       <c r="C1" s="18"/>
@@ -623,7 +623,7 @@
       <c r="K1" s="18"/>
       <c r="L1" s="6"/>
       <c r="M1" s="19" t="s">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="N1" s="19"/>
       <c r="O1" s="19"/>
@@ -631,81 +631,81 @@
       <c r="U1" s="8"/>
       <c r="V1" s="8"/>
     </row>
-    <row r="2" spans="1:24" s="1" customFormat="1" ht="54.75" customHeight="1">
+    <row r="2" spans="1:24" s="1" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="F2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="3" t="s">
+      <c r="G2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="H2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="I2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="J2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="K2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="L2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="M2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="N2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="O2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="N2" s="3" t="s">
+      <c r="P2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="O2" s="3" t="s">
+      <c r="Q2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="P2" s="3" t="s">
+      <c r="R2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="S2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="T2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="U2" s="3" t="s">
         <v>15</v>
-      </c>
-      <c r="Q2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="R2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="U2" s="3" t="s">
-        <v>17</v>
       </c>
       <c r="V2" s="3"/>
       <c r="W2" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="X2" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="X2" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:24">
-      <c r="A3" s="2" t="s">
-        <v>20</v>
       </c>
       <c r="B3" s="2">
         <v>1</v>
@@ -734,13 +734,13 @@
       </c>
       <c r="K3" s="2"/>
       <c r="L3" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="M3" s="2">
         <v>1001</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="O3" s="2">
         <v>0.5</v>
@@ -763,133 +763,133 @@
         <v>1_2_3_Part1_Coh1_220405_1_2_ID-1001_AJ_0.5HR_13:27_SN12345678_split2</v>
       </c>
     </row>
-    <row r="4" spans="1:24">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="G4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:24">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
       <c r="P5" s="17"/>
     </row>
-    <row r="6" spans="1:24">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2</v>
       </c>
       <c r="P6" s="17"/>
     </row>
-    <row r="7" spans="1:24">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>3</v>
       </c>
       <c r="P7" s="17"/>
     </row>
-    <row r="8" spans="1:24">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>4</v>
       </c>
       <c r="P8" s="17"/>
     </row>
-    <row r="9" spans="1:24">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>5</v>
       </c>
       <c r="P9" s="17"/>
     </row>
-    <row r="10" spans="1:24">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>6</v>
       </c>
       <c r="P10" s="17"/>
     </row>
-    <row r="11" spans="1:24">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>7</v>
       </c>
       <c r="P11" s="17"/>
     </row>
-    <row r="12" spans="1:24">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>8</v>
       </c>
       <c r="P12" s="17"/>
     </row>
-    <row r="13" spans="1:24">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>9</v>
       </c>
       <c r="P13" s="17"/>
     </row>
-    <row r="14" spans="1:24">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>10</v>
       </c>
       <c r="P14" s="17"/>
     </row>
-    <row r="15" spans="1:24">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>11</v>
       </c>
       <c r="P15" s="17"/>
     </row>
-    <row r="16" spans="1:24">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>12</v>
       </c>
       <c r="P16" s="17"/>
     </row>
-    <row r="17" spans="1:23">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>13</v>
       </c>
       <c r="P17" s="17"/>
     </row>
-    <row r="18" spans="1:23">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>14</v>
       </c>
       <c r="P18" s="17"/>
     </row>
-    <row r="19" spans="1:23">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>15</v>
       </c>
       <c r="P19" s="17"/>
     </row>
-    <row r="20" spans="1:23">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>16</v>
       </c>
       <c r="P20" s="17"/>
     </row>
-    <row r="21" spans="1:23">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>17</v>
       </c>
       <c r="P21" s="17"/>
     </row>
-    <row r="22" spans="1:23">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>18</v>
       </c>
       <c r="P22" s="17"/>
     </row>
-    <row r="23" spans="1:23">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>19</v>
       </c>
       <c r="P23" s="17"/>
     </row>
-    <row r="24" spans="1:23">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>20</v>
       </c>
       <c r="P24" s="17"/>
       <c r="R24" s="11"/>
     </row>
-    <row r="25" spans="1:23">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>21</v>
       </c>
@@ -900,7 +900,7 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:23">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>22</v>
       </c>
@@ -911,7 +911,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:23">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>23</v>
       </c>
@@ -922,7 +922,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:23">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>24</v>
       </c>
@@ -933,7 +933,7 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:23">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>25</v>
       </c>
@@ -944,7 +944,7 @@
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:23">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>26</v>
       </c>
@@ -955,7 +955,7 @@
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:23">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>27</v>
       </c>
@@ -966,7 +966,7 @@
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:23">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>28</v>
       </c>
@@ -977,7 +977,7 @@
         <v/>
       </c>
     </row>
-    <row r="33" spans="1:23">
+    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>29</v>
       </c>
@@ -988,7 +988,7 @@
         <v/>
       </c>
     </row>
-    <row r="34" spans="1:23">
+    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>30</v>
       </c>
@@ -999,7 +999,7 @@
         <v/>
       </c>
     </row>
-    <row r="35" spans="1:23">
+    <row r="35" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>31</v>
       </c>
@@ -1010,7 +1010,7 @@
         <v/>
       </c>
     </row>
-    <row r="36" spans="1:23">
+    <row r="36" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>32</v>
       </c>
@@ -1021,7 +1021,7 @@
         <v/>
       </c>
     </row>
-    <row r="37" spans="1:23">
+    <row r="37" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>33</v>
       </c>
@@ -1032,7 +1032,7 @@
         <v/>
       </c>
     </row>
-    <row r="38" spans="1:23">
+    <row r="38" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>34</v>
       </c>
@@ -1043,7 +1043,7 @@
         <v/>
       </c>
     </row>
-    <row r="39" spans="1:23">
+    <row r="39" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>35</v>
       </c>
@@ -1054,7 +1054,7 @@
         <v/>
       </c>
     </row>
-    <row r="40" spans="1:23">
+    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>36</v>
       </c>
@@ -1065,7 +1065,7 @@
         <v/>
       </c>
     </row>
-    <row r="41" spans="1:23">
+    <row r="41" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>37</v>
       </c>
@@ -1076,7 +1076,7 @@
         <v/>
       </c>
     </row>
-    <row r="42" spans="1:23">
+    <row r="42" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>38</v>
       </c>
@@ -1087,7 +1087,7 @@
         <v/>
       </c>
     </row>
-    <row r="43" spans="1:23">
+    <row r="43" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>39</v>
       </c>
@@ -1098,7 +1098,7 @@
         <v/>
       </c>
     </row>
-    <row r="44" spans="1:23">
+    <row r="44" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>40</v>
       </c>
@@ -1109,7 +1109,7 @@
         <v/>
       </c>
     </row>
-    <row r="45" spans="1:23">
+    <row r="45" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>41</v>
       </c>
@@ -1120,7 +1120,7 @@
         <v/>
       </c>
     </row>
-    <row r="46" spans="1:23">
+    <row r="46" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>42</v>
       </c>
@@ -1131,7 +1131,7 @@
         <v/>
       </c>
     </row>
-    <row r="47" spans="1:23">
+    <row r="47" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>43</v>
       </c>
@@ -1142,7 +1142,7 @@
         <v/>
       </c>
     </row>
-    <row r="48" spans="1:23">
+    <row r="48" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>44</v>
       </c>
@@ -1153,7 +1153,7 @@
         <v/>
       </c>
     </row>
-    <row r="49" spans="1:23">
+    <row r="49" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>45</v>
       </c>
@@ -1164,7 +1164,7 @@
         <v/>
       </c>
     </row>
-    <row r="50" spans="1:23">
+    <row r="50" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>46</v>
       </c>
@@ -1175,7 +1175,7 @@
         <v/>
       </c>
     </row>
-    <row r="51" spans="1:23">
+    <row r="51" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>47</v>
       </c>
@@ -1186,7 +1186,7 @@
         <v/>
       </c>
     </row>
-    <row r="52" spans="1:23">
+    <row r="52" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>48</v>
       </c>
@@ -1197,7 +1197,7 @@
         <v/>
       </c>
     </row>
-    <row r="53" spans="1:23">
+    <row r="53" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>49</v>
       </c>
@@ -1208,7 +1208,7 @@
         <v/>
       </c>
     </row>
-    <row r="54" spans="1:23">
+    <row r="54" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>50</v>
       </c>
@@ -1218,7 +1218,7 @@
         <v/>
       </c>
     </row>
-    <row r="55" spans="1:23">
+    <row r="55" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>51</v>
       </c>
@@ -1228,7 +1228,7 @@
         <v/>
       </c>
     </row>
-    <row r="56" spans="1:23">
+    <row r="56" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>52</v>
       </c>
@@ -1238,7 +1238,7 @@
         <v/>
       </c>
     </row>
-    <row r="57" spans="1:23">
+    <row r="57" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>53</v>
       </c>
@@ -1248,7 +1248,7 @@
         <v/>
       </c>
     </row>
-    <row r="58" spans="1:23">
+    <row r="58" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>54</v>
       </c>
@@ -1258,7 +1258,7 @@
         <v/>
       </c>
     </row>
-    <row r="59" spans="1:23">
+    <row r="59" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>55</v>
       </c>
@@ -1268,7 +1268,7 @@
         <v/>
       </c>
     </row>
-    <row r="60" spans="1:23">
+    <row r="60" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>56</v>
       </c>
@@ -1278,7 +1278,7 @@
         <v/>
       </c>
     </row>
-    <row r="61" spans="1:23">
+    <row r="61" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>57</v>
       </c>
@@ -1288,7 +1288,7 @@
         <v/>
       </c>
     </row>
-    <row r="62" spans="1:23">
+    <row r="62" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>58</v>
       </c>
@@ -1298,7 +1298,7 @@
         <v/>
       </c>
     </row>
-    <row r="63" spans="1:23">
+    <row r="63" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>59</v>
       </c>
@@ -1308,7 +1308,7 @@
         <v/>
       </c>
     </row>
-    <row r="64" spans="1:23">
+    <row r="64" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>60</v>
       </c>
@@ -1318,7 +1318,7 @@
         <v/>
       </c>
     </row>
-    <row r="65" spans="1:23">
+    <row r="65" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>61</v>
       </c>
@@ -1328,7 +1328,7 @@
         <v/>
       </c>
     </row>
-    <row r="66" spans="1:23">
+    <row r="66" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>62</v>
       </c>
@@ -1338,7 +1338,7 @@
         <v/>
       </c>
     </row>
-    <row r="67" spans="1:23">
+    <row r="67" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>63</v>
       </c>
@@ -1348,7 +1348,7 @@
         <v/>
       </c>
     </row>
-    <row r="68" spans="1:23">
+    <row r="68" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>64</v>
       </c>
@@ -1358,7 +1358,7 @@
         <v/>
       </c>
     </row>
-    <row r="69" spans="1:23">
+    <row r="69" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>65</v>
       </c>
@@ -1367,7 +1367,7 @@
         <v/>
       </c>
     </row>
-    <row r="70" spans="1:23">
+    <row r="70" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>66</v>
       </c>
@@ -1376,7 +1376,7 @@
         <v/>
       </c>
     </row>
-    <row r="71" spans="1:23">
+    <row r="71" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>67</v>
       </c>
@@ -1385,7 +1385,7 @@
         <v/>
       </c>
     </row>
-    <row r="72" spans="1:23">
+    <row r="72" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>68</v>
       </c>
@@ -1394,7 +1394,7 @@
         <v/>
       </c>
     </row>
-    <row r="73" spans="1:23">
+    <row r="73" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>69</v>
       </c>
@@ -1403,7 +1403,7 @@
         <v/>
       </c>
     </row>
-    <row r="74" spans="1:23">
+    <row r="74" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>70</v>
       </c>
@@ -1412,7 +1412,7 @@
         <v/>
       </c>
     </row>
-    <row r="75" spans="1:23">
+    <row r="75" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>71</v>
       </c>
@@ -1421,7 +1421,7 @@
         <v/>
       </c>
     </row>
-    <row r="76" spans="1:23">
+    <row r="76" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>72</v>
       </c>
@@ -1430,7 +1430,7 @@
         <v/>
       </c>
     </row>
-    <row r="77" spans="1:23">
+    <row r="77" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>73</v>
       </c>
@@ -1439,7 +1439,7 @@
         <v/>
       </c>
     </row>
-    <row r="78" spans="1:23">
+    <row r="78" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>74</v>
       </c>
@@ -1448,7 +1448,7 @@
         <v/>
       </c>
     </row>
-    <row r="79" spans="1:23">
+    <row r="79" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>75</v>
       </c>
@@ -1457,7 +1457,7 @@
         <v/>
       </c>
     </row>
-    <row r="80" spans="1:23">
+    <row r="80" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>76</v>
       </c>
@@ -1466,7 +1466,7 @@
         <v/>
       </c>
     </row>
-    <row r="81" spans="1:23">
+    <row r="81" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>77</v>
       </c>
@@ -1475,7 +1475,7 @@
         <v/>
       </c>
     </row>
-    <row r="82" spans="1:23">
+    <row r="82" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>78</v>
       </c>
@@ -1484,7 +1484,7 @@
         <v/>
       </c>
     </row>
-    <row r="83" spans="1:23">
+    <row r="83" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>79</v>
       </c>
@@ -1493,7 +1493,7 @@
         <v/>
       </c>
     </row>
-    <row r="84" spans="1:23">
+    <row r="84" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>80</v>
       </c>
@@ -1502,7 +1502,7 @@
         <v/>
       </c>
     </row>
-    <row r="85" spans="1:23">
+    <row r="85" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>81</v>
       </c>
@@ -1511,7 +1511,7 @@
         <v/>
       </c>
     </row>
-    <row r="86" spans="1:23">
+    <row r="86" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>82</v>
       </c>
@@ -1520,7 +1520,7 @@
         <v/>
       </c>
     </row>
-    <row r="87" spans="1:23">
+    <row r="87" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>83</v>
       </c>
@@ -1529,7 +1529,7 @@
         <v/>
       </c>
     </row>
-    <row r="88" spans="1:23">
+    <row r="88" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>84</v>
       </c>
@@ -1538,7 +1538,7 @@
         <v/>
       </c>
     </row>
-    <row r="89" spans="1:23">
+    <row r="89" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>85</v>
       </c>
@@ -1547,7 +1547,7 @@
         <v/>
       </c>
     </row>
-    <row r="90" spans="1:23">
+    <row r="90" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>86</v>
       </c>
@@ -1556,7 +1556,7 @@
         <v/>
       </c>
     </row>
-    <row r="91" spans="1:23">
+    <row r="91" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>87</v>
       </c>
@@ -1565,7 +1565,7 @@
         <v/>
       </c>
     </row>
-    <row r="92" spans="1:23">
+    <row r="92" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>88</v>
       </c>
@@ -1574,7 +1574,7 @@
         <v/>
       </c>
     </row>
-    <row r="93" spans="1:23">
+    <row r="93" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>89</v>
       </c>
@@ -1583,7 +1583,7 @@
         <v/>
       </c>
     </row>
-    <row r="94" spans="1:23">
+    <row r="94" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>90</v>
       </c>
@@ -1592,7 +1592,7 @@
         <v/>
       </c>
     </row>
-    <row r="95" spans="1:23">
+    <row r="95" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>91</v>
       </c>
@@ -1601,7 +1601,7 @@
         <v/>
       </c>
     </row>
-    <row r="96" spans="1:23">
+    <row r="96" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>92</v>
       </c>
@@ -1610,7 +1610,7 @@
         <v/>
       </c>
     </row>
-    <row r="97" spans="1:23">
+    <row r="97" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>93</v>
       </c>
@@ -1619,7 +1619,7 @@
         <v/>
       </c>
     </row>
-    <row r="98" spans="1:23">
+    <row r="98" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>94</v>
       </c>
@@ -1628,7 +1628,7 @@
         <v/>
       </c>
     </row>
-    <row r="99" spans="1:23">
+    <row r="99" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>95</v>
       </c>
@@ -1637,7 +1637,7 @@
         <v/>
       </c>
     </row>
-    <row r="100" spans="1:23">
+    <row r="100" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>96</v>
       </c>
@@ -1646,7 +1646,7 @@
         <v/>
       </c>
     </row>
-    <row r="101" spans="1:23">
+    <row r="101" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>97</v>
       </c>
@@ -1655,7 +1655,7 @@
         <v/>
       </c>
     </row>
-    <row r="102" spans="1:23">
+    <row r="102" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>98</v>
       </c>
@@ -1664,7 +1664,7 @@
         <v/>
       </c>
     </row>
-    <row r="103" spans="1:23">
+    <row r="103" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>99</v>
       </c>
@@ -1673,7 +1673,7 @@
         <v/>
       </c>
     </row>
-    <row r="104" spans="1:23">
+    <row r="104" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>100</v>
       </c>
@@ -1682,7 +1682,7 @@
         <v/>
       </c>
     </row>
-    <row r="105" spans="1:23">
+    <row r="105" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>101</v>
       </c>
@@ -1691,7 +1691,7 @@
         <v/>
       </c>
     </row>
-    <row r="106" spans="1:23">
+    <row r="106" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>102</v>
       </c>
@@ -1700,7 +1700,7 @@
         <v/>
       </c>
     </row>
-    <row r="107" spans="1:23">
+    <row r="107" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>103</v>
       </c>
@@ -1709,7 +1709,7 @@
         <v/>
       </c>
     </row>
-    <row r="108" spans="1:23">
+    <row r="108" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>104</v>
       </c>
@@ -1718,7 +1718,7 @@
         <v/>
       </c>
     </row>
-    <row r="109" spans="1:23">
+    <row r="109" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>105</v>
       </c>
@@ -1727,7 +1727,7 @@
         <v/>
       </c>
     </row>
-    <row r="110" spans="1:23">
+    <row r="110" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>106</v>
       </c>
@@ -1736,7 +1736,7 @@
         <v/>
       </c>
     </row>
-    <row r="111" spans="1:23">
+    <row r="111" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>107</v>
       </c>
@@ -1745,7 +1745,7 @@
         <v/>
       </c>
     </row>
-    <row r="112" spans="1:23">
+    <row r="112" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>108</v>
       </c>
@@ -1754,7 +1754,7 @@
         <v/>
       </c>
     </row>
-    <row r="113" spans="1:23">
+    <row r="113" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>109</v>
       </c>
@@ -1763,7 +1763,7 @@
         <v/>
       </c>
     </row>
-    <row r="114" spans="1:23">
+    <row r="114" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>110</v>
       </c>
@@ -1772,7 +1772,7 @@
         <v/>
       </c>
     </row>
-    <row r="115" spans="1:23">
+    <row r="115" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>111</v>
       </c>
@@ -1781,7 +1781,7 @@
         <v/>
       </c>
     </row>
-    <row r="116" spans="1:23">
+    <row r="116" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>112</v>
       </c>
@@ -1790,7 +1790,7 @@
         <v/>
       </c>
     </row>
-    <row r="117" spans="1:23">
+    <row r="117" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>113</v>
       </c>
@@ -1799,7 +1799,7 @@
         <v/>
       </c>
     </row>
-    <row r="118" spans="1:23">
+    <row r="118" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>114</v>
       </c>
@@ -1808,7 +1808,7 @@
         <v/>
       </c>
     </row>
-    <row r="119" spans="1:23">
+    <row r="119" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>115</v>
       </c>
@@ -1817,7 +1817,7 @@
         <v/>
       </c>
     </row>
-    <row r="120" spans="1:23">
+    <row r="120" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>116</v>
       </c>
@@ -1826,7 +1826,7 @@
         <v/>
       </c>
     </row>
-    <row r="121" spans="1:23">
+    <row r="121" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>117</v>
       </c>
@@ -1835,7 +1835,7 @@
         <v/>
       </c>
     </row>
-    <row r="122" spans="1:23">
+    <row r="122" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>118</v>
       </c>
@@ -1844,7 +1844,7 @@
         <v/>
       </c>
     </row>
-    <row r="123" spans="1:23">
+    <row r="123" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>119</v>
       </c>
@@ -1853,7 +1853,7 @@
         <v/>
       </c>
     </row>
-    <row r="124" spans="1:23">
+    <row r="124" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>120</v>
       </c>
@@ -1862,7 +1862,7 @@
         <v/>
       </c>
     </row>
-    <row r="125" spans="1:23">
+    <row r="125" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>121</v>
       </c>
@@ -1871,7 +1871,7 @@
         <v/>
       </c>
     </row>
-    <row r="126" spans="1:23">
+    <row r="126" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>122</v>
       </c>
@@ -1880,7 +1880,7 @@
         <v/>
       </c>
     </row>
-    <row r="127" spans="1:23">
+    <row r="127" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>123</v>
       </c>
@@ -1889,7 +1889,7 @@
         <v/>
       </c>
     </row>
-    <row r="128" spans="1:23">
+    <row r="128" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>124</v>
       </c>
@@ -1898,7 +1898,7 @@
         <v/>
       </c>
     </row>
-    <row r="129" spans="1:23">
+    <row r="129" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>125</v>
       </c>
@@ -1907,7 +1907,7 @@
         <v/>
       </c>
     </row>
-    <row r="130" spans="1:23">
+    <row r="130" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>126</v>
       </c>
@@ -1916,7 +1916,7 @@
         <v/>
       </c>
     </row>
-    <row r="131" spans="1:23">
+    <row r="131" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>127</v>
       </c>
@@ -1925,7 +1925,7 @@
         <v/>
       </c>
     </row>
-    <row r="132" spans="1:23">
+    <row r="132" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>128</v>
       </c>
@@ -1934,7 +1934,7 @@
         <v/>
       </c>
     </row>
-    <row r="133" spans="1:23">
+    <row r="133" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>129</v>
       </c>
@@ -1943,7 +1943,7 @@
         <v/>
       </c>
     </row>
-    <row r="134" spans="1:23">
+    <row r="134" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>130</v>
       </c>
@@ -1952,7 +1952,7 @@
         <v/>
       </c>
     </row>
-    <row r="135" spans="1:23">
+    <row r="135" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>131</v>
       </c>
@@ -1961,7 +1961,7 @@
         <v/>
       </c>
     </row>
-    <row r="136" spans="1:23">
+    <row r="136" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>132</v>
       </c>
@@ -1970,7 +1970,7 @@
         <v/>
       </c>
     </row>
-    <row r="137" spans="1:23">
+    <row r="137" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>133</v>
       </c>
@@ -1979,7 +1979,7 @@
         <v/>
       </c>
     </row>
-    <row r="138" spans="1:23">
+    <row r="138" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>134</v>
       </c>
@@ -1988,7 +1988,7 @@
         <v/>
       </c>
     </row>
-    <row r="139" spans="1:23">
+    <row r="139" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>135</v>
       </c>
@@ -1997,7 +1997,7 @@
         <v/>
       </c>
     </row>
-    <row r="140" spans="1:23">
+    <row r="140" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>136</v>
       </c>
@@ -2006,7 +2006,7 @@
         <v/>
       </c>
     </row>
-    <row r="141" spans="1:23">
+    <row r="141" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>137</v>
       </c>
@@ -2015,7 +2015,7 @@
         <v/>
       </c>
     </row>
-    <row r="142" spans="1:23">
+    <row r="142" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>138</v>
       </c>
@@ -2024,7 +2024,7 @@
         <v/>
       </c>
     </row>
-    <row r="143" spans="1:23">
+    <row r="143" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>139</v>
       </c>
@@ -2033,7 +2033,7 @@
         <v/>
       </c>
     </row>
-    <row r="144" spans="1:23">
+    <row r="144" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>140</v>
       </c>
@@ -2042,7 +2042,7 @@
         <v/>
       </c>
     </row>
-    <row r="145" spans="1:23">
+    <row r="145" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>141</v>
       </c>
@@ -2051,7 +2051,7 @@
         <v/>
       </c>
     </row>
-    <row r="146" spans="1:23">
+    <row r="146" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>142</v>
       </c>
@@ -2060,7 +2060,7 @@
         <v/>
       </c>
     </row>
-    <row r="147" spans="1:23">
+    <row r="147" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>143</v>
       </c>
@@ -2069,7 +2069,7 @@
         <v/>
       </c>
     </row>
-    <row r="148" spans="1:23">
+    <row r="148" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>144</v>
       </c>
@@ -2078,7 +2078,7 @@
         <v/>
       </c>
     </row>
-    <row r="149" spans="1:23">
+    <row r="149" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>145</v>
       </c>
@@ -2087,7 +2087,7 @@
         <v/>
       </c>
     </row>
-    <row r="150" spans="1:23">
+    <row r="150" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>146</v>
       </c>
@@ -2096,7 +2096,7 @@
         <v/>
       </c>
     </row>
-    <row r="151" spans="1:23">
+    <row r="151" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>147</v>
       </c>
@@ -2105,7 +2105,7 @@
         <v/>
       </c>
     </row>
-    <row r="152" spans="1:23">
+    <row r="152" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>148</v>
       </c>
@@ -2114,7 +2114,7 @@
         <v/>
       </c>
     </row>
-    <row r="153" spans="1:23">
+    <row r="153" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>149</v>
       </c>
@@ -2123,7 +2123,7 @@
         <v/>
       </c>
     </row>
-    <row r="154" spans="1:23">
+    <row r="154" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>150</v>
       </c>
@@ -2132,7 +2132,7 @@
         <v/>
       </c>
     </row>
-    <row r="155" spans="1:23">
+    <row r="155" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>151</v>
       </c>
@@ -2141,7 +2141,7 @@
         <v/>
       </c>
     </row>
-    <row r="156" spans="1:23">
+    <row r="156" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>152</v>
       </c>
@@ -2150,7 +2150,7 @@
         <v/>
       </c>
     </row>
-    <row r="157" spans="1:23">
+    <row r="157" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>153</v>
       </c>
@@ -2159,7 +2159,7 @@
         <v/>
       </c>
     </row>
-    <row r="158" spans="1:23">
+    <row r="158" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>154</v>
       </c>
@@ -2168,7 +2168,7 @@
         <v/>
       </c>
     </row>
-    <row r="159" spans="1:23">
+    <row r="159" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>155</v>
       </c>
@@ -2177,7 +2177,7 @@
         <v/>
       </c>
     </row>
-    <row r="160" spans="1:23">
+    <row r="160" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>156</v>
       </c>
@@ -2186,7 +2186,7 @@
         <v/>
       </c>
     </row>
-    <row r="161" spans="1:23">
+    <row r="161" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>157</v>
       </c>
@@ -2195,7 +2195,7 @@
         <v/>
       </c>
     </row>
-    <row r="162" spans="1:23">
+    <row r="162" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>158</v>
       </c>
@@ -2204,7 +2204,7 @@
         <v/>
       </c>
     </row>
-    <row r="163" spans="1:23">
+    <row r="163" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>159</v>
       </c>
@@ -2213,7 +2213,7 @@
         <v/>
       </c>
     </row>
-    <row r="164" spans="1:23">
+    <row r="164" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>160</v>
       </c>
@@ -2222,7 +2222,7 @@
         <v/>
       </c>
     </row>
-    <row r="165" spans="1:23">
+    <row r="165" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>161</v>
       </c>
@@ -2231,7 +2231,7 @@
         <v/>
       </c>
     </row>
-    <row r="166" spans="1:23">
+    <row r="166" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>162</v>
       </c>
@@ -2240,7 +2240,7 @@
         <v/>
       </c>
     </row>
-    <row r="167" spans="1:23">
+    <row r="167" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>163</v>
       </c>
@@ -2249,7 +2249,7 @@
         <v/>
       </c>
     </row>
-    <row r="168" spans="1:23">
+    <row r="168" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>164</v>
       </c>
@@ -2258,7 +2258,7 @@
         <v/>
       </c>
     </row>
-    <row r="169" spans="1:23">
+    <row r="169" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>165</v>
       </c>
@@ -2267,7 +2267,7 @@
         <v/>
       </c>
     </row>
-    <row r="170" spans="1:23">
+    <row r="170" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>166</v>
       </c>
@@ -2276,7 +2276,7 @@
         <v/>
       </c>
     </row>
-    <row r="171" spans="1:23">
+    <row r="171" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>167</v>
       </c>
@@ -2285,7 +2285,7 @@
         <v/>
       </c>
     </row>
-    <row r="172" spans="1:23">
+    <row r="172" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>168</v>
       </c>
@@ -2294,7 +2294,7 @@
         <v/>
       </c>
     </row>
-    <row r="173" spans="1:23">
+    <row r="173" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>169</v>
       </c>
@@ -2303,7 +2303,7 @@
         <v/>
       </c>
     </row>
-    <row r="174" spans="1:23">
+    <row r="174" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>170</v>
       </c>
@@ -2312,7 +2312,7 @@
         <v/>
       </c>
     </row>
-    <row r="175" spans="1:23">
+    <row r="175" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>171</v>
       </c>
@@ -2321,7 +2321,7 @@
         <v/>
       </c>
     </row>
-    <row r="176" spans="1:23">
+    <row r="176" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>172</v>
       </c>
@@ -2330,7 +2330,7 @@
         <v/>
       </c>
     </row>
-    <row r="177" spans="1:23">
+    <row r="177" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>173</v>
       </c>
@@ -2339,7 +2339,7 @@
         <v/>
       </c>
     </row>
-    <row r="178" spans="1:23">
+    <row r="178" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>174</v>
       </c>
@@ -2348,7 +2348,7 @@
         <v/>
       </c>
     </row>
-    <row r="179" spans="1:23">
+    <row r="179" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>175</v>
       </c>
@@ -2357,7 +2357,7 @@
         <v/>
       </c>
     </row>
-    <row r="180" spans="1:23">
+    <row r="180" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>176</v>
       </c>
@@ -2366,7 +2366,7 @@
         <v/>
       </c>
     </row>
-    <row r="181" spans="1:23">
+    <row r="181" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>177</v>
       </c>
@@ -2375,7 +2375,7 @@
         <v/>
       </c>
     </row>
-    <row r="182" spans="1:23">
+    <row r="182" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>178</v>
       </c>
@@ -2384,7 +2384,7 @@
         <v/>
       </c>
     </row>
-    <row r="183" spans="1:23">
+    <row r="183" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>179</v>
       </c>
@@ -2393,7 +2393,7 @@
         <v/>
       </c>
     </row>
-    <row r="184" spans="1:23">
+    <row r="184" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>180</v>
       </c>
@@ -2402,7 +2402,7 @@
         <v/>
       </c>
     </row>
-    <row r="185" spans="1:23">
+    <row r="185" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>181</v>
       </c>
@@ -2411,7 +2411,7 @@
         <v/>
       </c>
     </row>
-    <row r="186" spans="1:23">
+    <row r="186" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>182</v>
       </c>
@@ -2420,7 +2420,7 @@
         <v/>
       </c>
     </row>
-    <row r="187" spans="1:23">
+    <row r="187" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>183</v>
       </c>
@@ -2429,7 +2429,7 @@
         <v/>
       </c>
     </row>
-    <row r="188" spans="1:23">
+    <row r="188" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>184</v>
       </c>
@@ -2438,7 +2438,7 @@
         <v/>
       </c>
     </row>
-    <row r="189" spans="1:23">
+    <row r="189" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>185</v>
       </c>
@@ -2447,7 +2447,7 @@
         <v/>
       </c>
     </row>
-    <row r="190" spans="1:23">
+    <row r="190" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>186</v>
       </c>
@@ -2456,7 +2456,7 @@
         <v/>
       </c>
     </row>
-    <row r="191" spans="1:23">
+    <row r="191" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>187</v>
       </c>
@@ -2465,7 +2465,7 @@
         <v/>
       </c>
     </row>
-    <row r="192" spans="1:23">
+    <row r="192" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>188</v>
       </c>
@@ -2474,7 +2474,7 @@
         <v/>
       </c>
     </row>
-    <row r="193" spans="1:23">
+    <row r="193" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>189</v>
       </c>
@@ -2483,7 +2483,7 @@
         <v/>
       </c>
     </row>
-    <row r="194" spans="1:23">
+    <row r="194" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>190</v>
       </c>
@@ -2492,7 +2492,7 @@
         <v/>
       </c>
     </row>
-    <row r="195" spans="1:23">
+    <row r="195" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>191</v>
       </c>
@@ -2501,7 +2501,7 @@
         <v/>
       </c>
     </row>
-    <row r="196" spans="1:23">
+    <row r="196" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>192</v>
       </c>
@@ -2510,7 +2510,7 @@
         <v/>
       </c>
     </row>
-    <row r="197" spans="1:23">
+    <row r="197" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>193</v>
       </c>
@@ -2519,7 +2519,7 @@
         <v/>
       </c>
     </row>
-    <row r="198" spans="1:23">
+    <row r="198" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>194</v>
       </c>
@@ -2528,7 +2528,7 @@
         <v/>
       </c>
     </row>
-    <row r="199" spans="1:23">
+    <row r="199" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>195</v>
       </c>
@@ -2537,7 +2537,7 @@
         <v/>
       </c>
     </row>
-    <row r="200" spans="1:23">
+    <row r="200" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>196</v>
       </c>
@@ -2546,7 +2546,7 @@
         <v/>
       </c>
     </row>
-    <row r="201" spans="1:23">
+    <row r="201" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>197</v>
       </c>
@@ -2555,7 +2555,7 @@
         <v/>
       </c>
     </row>
-    <row r="202" spans="1:23">
+    <row r="202" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>198</v>
       </c>
@@ -2564,7 +2564,7 @@
         <v/>
       </c>
     </row>
-    <row r="203" spans="1:23">
+    <row r="203" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>199</v>
       </c>
@@ -2573,7 +2573,7 @@
         <v/>
       </c>
     </row>
-    <row r="204" spans="1:23">
+    <row r="204" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>200</v>
       </c>
@@ -2582,7 +2582,7 @@
         <v/>
       </c>
     </row>
-    <row r="205" spans="1:23">
+    <row r="205" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>201</v>
       </c>
@@ -2591,7 +2591,7 @@
         <v/>
       </c>
     </row>
-    <row r="206" spans="1:23">
+    <row r="206" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>202</v>
       </c>
@@ -2600,7 +2600,7 @@
         <v/>
       </c>
     </row>
-    <row r="207" spans="1:23">
+    <row r="207" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>203</v>
       </c>
@@ -2609,7 +2609,7 @@
         <v/>
       </c>
     </row>
-    <row r="208" spans="1:23">
+    <row r="208" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>204</v>
       </c>
@@ -2618,7 +2618,7 @@
         <v/>
       </c>
     </row>
-    <row r="209" spans="1:23">
+    <row r="209" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>205</v>
       </c>
@@ -2627,7 +2627,7 @@
         <v/>
       </c>
     </row>
-    <row r="210" spans="1:23">
+    <row r="210" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>206</v>
       </c>
@@ -2636,7 +2636,7 @@
         <v/>
       </c>
     </row>
-    <row r="211" spans="1:23">
+    <row r="211" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>207</v>
       </c>
@@ -2645,7 +2645,7 @@
         <v/>
       </c>
     </row>
-    <row r="212" spans="1:23">
+    <row r="212" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>208</v>
       </c>
@@ -2654,7 +2654,7 @@
         <v/>
       </c>
     </row>
-    <row r="213" spans="1:23">
+    <row r="213" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>209</v>
       </c>
@@ -2663,7 +2663,7 @@
         <v/>
       </c>
     </row>
-    <row r="214" spans="1:23">
+    <row r="214" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>210</v>
       </c>
@@ -2672,7 +2672,7 @@
         <v/>
       </c>
     </row>
-    <row r="215" spans="1:23">
+    <row r="215" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>211</v>
       </c>
@@ -2681,7 +2681,7 @@
         <v/>
       </c>
     </row>
-    <row r="216" spans="1:23">
+    <row r="216" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>212</v>
       </c>
@@ -2690,7 +2690,7 @@
         <v/>
       </c>
     </row>
-    <row r="217" spans="1:23">
+    <row r="217" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>213</v>
       </c>
@@ -2699,7 +2699,7 @@
         <v/>
       </c>
     </row>
-    <row r="218" spans="1:23">
+    <row r="218" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>214</v>
       </c>
@@ -2708,7 +2708,7 @@
         <v/>
       </c>
     </row>
-    <row r="219" spans="1:23">
+    <row r="219" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>215</v>
       </c>
@@ -2717,7 +2717,7 @@
         <v/>
       </c>
     </row>
-    <row r="220" spans="1:23">
+    <row r="220" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>216</v>
       </c>
@@ -2726,7 +2726,7 @@
         <v/>
       </c>
     </row>
-    <row r="221" spans="1:23">
+    <row r="221" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>217</v>
       </c>
@@ -2735,7 +2735,7 @@
         <v/>
       </c>
     </row>
-    <row r="222" spans="1:23">
+    <row r="222" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>218</v>
       </c>
@@ -2744,7 +2744,7 @@
         <v/>
       </c>
     </row>
-    <row r="223" spans="1:23">
+    <row r="223" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>219</v>
       </c>
@@ -2753,7 +2753,7 @@
         <v/>
       </c>
     </row>
-    <row r="224" spans="1:23">
+    <row r="224" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>220</v>
       </c>
@@ -2762,7 +2762,7 @@
         <v/>
       </c>
     </row>
-    <row r="225" spans="1:23">
+    <row r="225" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>221</v>
       </c>
@@ -2771,7 +2771,7 @@
         <v/>
       </c>
     </row>
-    <row r="226" spans="1:23">
+    <row r="226" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>222</v>
       </c>
@@ -2780,7 +2780,7 @@
         <v/>
       </c>
     </row>
-    <row r="227" spans="1:23">
+    <row r="227" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>223</v>
       </c>
@@ -2789,7 +2789,7 @@
         <v/>
       </c>
     </row>
-    <row r="228" spans="1:23">
+    <row r="228" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>224</v>
       </c>
@@ -2798,7 +2798,7 @@
         <v/>
       </c>
     </row>
-    <row r="229" spans="1:23">
+    <row r="229" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>225</v>
       </c>
@@ -2807,7 +2807,7 @@
         <v/>
       </c>
     </row>
-    <row r="230" spans="1:23">
+    <row r="230" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>226</v>
       </c>
@@ -2816,7 +2816,7 @@
         <v/>
       </c>
     </row>
-    <row r="231" spans="1:23">
+    <row r="231" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>227</v>
       </c>
@@ -2825,7 +2825,7 @@
         <v/>
       </c>
     </row>
-    <row r="232" spans="1:23">
+    <row r="232" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>228</v>
       </c>
@@ -2834,7 +2834,7 @@
         <v/>
       </c>
     </row>
-    <row r="233" spans="1:23">
+    <row r="233" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>229</v>
       </c>
@@ -2843,7 +2843,7 @@
         <v/>
       </c>
     </row>
-    <row r="234" spans="1:23">
+    <row r="234" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>230</v>
       </c>
@@ -2852,7 +2852,7 @@
         <v/>
       </c>
     </row>
-    <row r="235" spans="1:23">
+    <row r="235" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A235">
         <v>231</v>
       </c>
@@ -2861,7 +2861,7 @@
         <v/>
       </c>
     </row>
-    <row r="236" spans="1:23">
+    <row r="236" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A236">
         <v>232</v>
       </c>
@@ -2870,7 +2870,7 @@
         <v/>
       </c>
     </row>
-    <row r="237" spans="1:23">
+    <row r="237" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A237">
         <v>233</v>
       </c>
@@ -2879,7 +2879,7 @@
         <v/>
       </c>
     </row>
-    <row r="238" spans="1:23">
+    <row r="238" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A238">
         <v>234</v>
       </c>
@@ -2888,7 +2888,7 @@
         <v/>
       </c>
     </row>
-    <row r="239" spans="1:23">
+    <row r="239" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A239">
         <v>235</v>
       </c>
@@ -2897,7 +2897,7 @@
         <v/>
       </c>
     </row>
-    <row r="240" spans="1:23">
+    <row r="240" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>236</v>
       </c>
@@ -2906,7 +2906,7 @@
         <v/>
       </c>
     </row>
-    <row r="241" spans="1:23">
+    <row r="241" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>237</v>
       </c>
@@ -2915,7 +2915,7 @@
         <v/>
       </c>
     </row>
-    <row r="242" spans="1:23">
+    <row r="242" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A242">
         <v>238</v>
       </c>
@@ -2924,7 +2924,7 @@
         <v/>
       </c>
     </row>
-    <row r="243" spans="1:23">
+    <row r="243" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A243">
         <v>239</v>
       </c>
@@ -2933,7 +2933,7 @@
         <v/>
       </c>
     </row>
-    <row r="244" spans="1:23">
+    <row r="244" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A244">
         <v>240</v>
       </c>
@@ -2942,7 +2942,7 @@
         <v/>
       </c>
     </row>
-    <row r="245" spans="1:23">
+    <row r="245" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A245">
         <v>241</v>
       </c>
@@ -2951,7 +2951,7 @@
         <v/>
       </c>
     </row>
-    <row r="246" spans="1:23">
+    <row r="246" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A246">
         <v>242</v>
       </c>
@@ -2960,7 +2960,7 @@
         <v/>
       </c>
     </row>
-    <row r="247" spans="1:23">
+    <row r="247" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A247">
         <v>243</v>
       </c>
@@ -2969,7 +2969,7 @@
         <v/>
       </c>
     </row>
-    <row r="248" spans="1:23">
+    <row r="248" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A248">
         <v>244</v>
       </c>
@@ -2978,7 +2978,7 @@
         <v/>
       </c>
     </row>
-    <row r="249" spans="1:23">
+    <row r="249" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A249">
         <v>245</v>
       </c>
@@ -2987,7 +2987,7 @@
         <v/>
       </c>
     </row>
-    <row r="250" spans="1:23">
+    <row r="250" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A250">
         <v>246</v>
       </c>
@@ -2996,7 +2996,7 @@
         <v/>
       </c>
     </row>
-    <row r="251" spans="1:23">
+    <row r="251" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A251">
         <v>247</v>
       </c>
@@ -3005,7 +3005,7 @@
         <v/>
       </c>
     </row>
-    <row r="252" spans="1:23">
+    <row r="252" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A252">
         <v>248</v>
       </c>
@@ -3014,7 +3014,7 @@
         <v/>
       </c>
     </row>
-    <row r="253" spans="1:23">
+    <row r="253" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A253">
         <v>249</v>
       </c>
@@ -3023,7 +3023,7 @@
         <v/>
       </c>
     </row>
-    <row r="254" spans="1:23">
+    <row r="254" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A254">
         <v>250</v>
       </c>
@@ -3032,7 +3032,7 @@
         <v/>
       </c>
     </row>
-    <row r="255" spans="1:23">
+    <row r="255" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A255">
         <v>251</v>
       </c>
@@ -3041,7 +3041,7 @@
         <v/>
       </c>
     </row>
-    <row r="256" spans="1:23">
+    <row r="256" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A256">
         <v>252</v>
       </c>
@@ -3050,7 +3050,7 @@
         <v/>
       </c>
     </row>
-    <row r="257" spans="1:23">
+    <row r="257" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A257">
         <v>253</v>
       </c>
@@ -3059,7 +3059,7 @@
         <v/>
       </c>
     </row>
-    <row r="258" spans="1:23">
+    <row r="258" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A258">
         <v>254</v>
       </c>
@@ -3068,7 +3068,7 @@
         <v/>
       </c>
     </row>
-    <row r="259" spans="1:23">
+    <row r="259" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A259">
         <v>255</v>
       </c>
@@ -3077,7 +3077,7 @@
         <v/>
       </c>
     </row>
-    <row r="260" spans="1:23">
+    <row r="260" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A260">
         <v>256</v>
       </c>
@@ -3086,7 +3086,7 @@
         <v/>
       </c>
     </row>
-    <row r="261" spans="1:23">
+    <row r="261" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A261">
         <v>257</v>
       </c>
@@ -3095,7 +3095,7 @@
         <v/>
       </c>
     </row>
-    <row r="262" spans="1:23">
+    <row r="262" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A262">
         <v>258</v>
       </c>
@@ -3104,7 +3104,7 @@
         <v/>
       </c>
     </row>
-    <row r="263" spans="1:23">
+    <row r="263" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A263">
         <v>259</v>
       </c>
@@ -3113,7 +3113,7 @@
         <v/>
       </c>
     </row>
-    <row r="264" spans="1:23">
+    <row r="264" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A264">
         <v>260</v>
       </c>
@@ -3122,7 +3122,7 @@
         <v/>
       </c>
     </row>
-    <row r="265" spans="1:23">
+    <row r="265" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A265">
         <v>261</v>
       </c>
@@ -3131,7 +3131,7 @@
         <v/>
       </c>
     </row>
-    <row r="266" spans="1:23">
+    <row r="266" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A266">
         <v>262</v>
       </c>
@@ -3140,7 +3140,7 @@
         <v/>
       </c>
     </row>
-    <row r="267" spans="1:23">
+    <row r="267" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A267">
         <v>263</v>
       </c>
@@ -3149,7 +3149,7 @@
         <v/>
       </c>
     </row>
-    <row r="268" spans="1:23">
+    <row r="268" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A268">
         <v>264</v>
       </c>
@@ -3158,7 +3158,7 @@
         <v/>
       </c>
     </row>
-    <row r="269" spans="1:23">
+    <row r="269" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A269">
         <v>265</v>
       </c>
@@ -3167,7 +3167,7 @@
         <v/>
       </c>
     </row>
-    <row r="270" spans="1:23">
+    <row r="270" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A270">
         <v>266</v>
       </c>
@@ -3176,7 +3176,7 @@
         <v/>
       </c>
     </row>
-    <row r="271" spans="1:23">
+    <row r="271" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A271">
         <v>267</v>
       </c>
@@ -3185,7 +3185,7 @@
         <v/>
       </c>
     </row>
-    <row r="272" spans="1:23">
+    <row r="272" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A272">
         <v>268</v>
       </c>
@@ -3194,7 +3194,7 @@
         <v/>
       </c>
     </row>
-    <row r="273" spans="1:23">
+    <row r="273" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A273">
         <v>269</v>
       </c>
@@ -3203,7 +3203,7 @@
         <v/>
       </c>
     </row>
-    <row r="274" spans="1:23">
+    <row r="274" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A274">
         <v>270</v>
       </c>
@@ -3212,7 +3212,7 @@
         <v/>
       </c>
     </row>
-    <row r="275" spans="1:23">
+    <row r="275" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A275">
         <v>271</v>
       </c>
@@ -3221,7 +3221,7 @@
         <v/>
       </c>
     </row>
-    <row r="276" spans="1:23">
+    <row r="276" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A276">
         <v>272</v>
       </c>
@@ -3230,7 +3230,7 @@
         <v/>
       </c>
     </row>
-    <row r="277" spans="1:23">
+    <row r="277" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A277">
         <v>273</v>
       </c>
@@ -3239,7 +3239,7 @@
         <v/>
       </c>
     </row>
-    <row r="278" spans="1:23">
+    <row r="278" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A278">
         <v>274</v>
       </c>
@@ -3248,7 +3248,7 @@
         <v/>
       </c>
     </row>
-    <row r="279" spans="1:23">
+    <row r="279" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A279">
         <v>275</v>
       </c>
@@ -3257,7 +3257,7 @@
         <v/>
       </c>
     </row>
-    <row r="280" spans="1:23">
+    <row r="280" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A280">
         <v>276</v>
       </c>
@@ -3266,7 +3266,7 @@
         <v/>
       </c>
     </row>
-    <row r="281" spans="1:23">
+    <row r="281" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A281">
         <v>277</v>
       </c>
@@ -3275,7 +3275,7 @@
         <v/>
       </c>
     </row>
-    <row r="282" spans="1:23">
+    <row r="282" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A282">
         <v>278</v>
       </c>
@@ -3284,7 +3284,7 @@
         <v/>
       </c>
     </row>
-    <row r="283" spans="1:23">
+    <row r="283" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A283">
         <v>279</v>
       </c>
@@ -3293,7 +3293,7 @@
         <v/>
       </c>
     </row>
-    <row r="284" spans="1:23">
+    <row r="284" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A284">
         <v>280</v>
       </c>
@@ -3302,7 +3302,7 @@
         <v/>
       </c>
     </row>
-    <row r="285" spans="1:23">
+    <row r="285" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A285">
         <v>281</v>
       </c>
@@ -3311,7 +3311,7 @@
         <v/>
       </c>
     </row>
-    <row r="286" spans="1:23">
+    <row r="286" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A286">
         <v>282</v>
       </c>
@@ -3320,7 +3320,7 @@
         <v/>
       </c>
     </row>
-    <row r="287" spans="1:23">
+    <row r="287" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A287">
         <v>283</v>
       </c>
@@ -3329,7 +3329,7 @@
         <v/>
       </c>
     </row>
-    <row r="288" spans="1:23">
+    <row r="288" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A288">
         <v>284</v>
       </c>
@@ -3338,7 +3338,7 @@
         <v/>
       </c>
     </row>
-    <row r="289" spans="1:23">
+    <row r="289" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A289">
         <v>285</v>
       </c>
@@ -3347,7 +3347,7 @@
         <v/>
       </c>
     </row>
-    <row r="290" spans="1:23">
+    <row r="290" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A290">
         <v>286</v>
       </c>
@@ -3356,7 +3356,7 @@
         <v/>
       </c>
     </row>
-    <row r="291" spans="1:23">
+    <row r="291" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A291">
         <v>287</v>
       </c>
@@ -3365,7 +3365,7 @@
         <v/>
       </c>
     </row>
-    <row r="292" spans="1:23">
+    <row r="292" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A292">
         <v>288</v>
       </c>
@@ -3374,7 +3374,7 @@
         <v/>
       </c>
     </row>
-    <row r="293" spans="1:23">
+    <row r="293" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A293">
         <v>289</v>
       </c>
@@ -3383,7 +3383,7 @@
         <v/>
       </c>
     </row>
-    <row r="294" spans="1:23">
+    <row r="294" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A294">
         <v>290</v>
       </c>
@@ -3392,7 +3392,7 @@
         <v/>
       </c>
     </row>
-    <row r="295" spans="1:23">
+    <row r="295" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A295">
         <v>291</v>
       </c>
@@ -3401,7 +3401,7 @@
         <v/>
       </c>
     </row>
-    <row r="296" spans="1:23">
+    <row r="296" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A296">
         <v>292</v>
       </c>
@@ -3410,7 +3410,7 @@
         <v/>
       </c>
     </row>
-    <row r="297" spans="1:23">
+    <row r="297" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A297">
         <v>293</v>
       </c>
@@ -3419,7 +3419,7 @@
         <v/>
       </c>
     </row>
-    <row r="298" spans="1:23">
+    <row r="298" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A298">
         <v>294</v>
       </c>
@@ -3428,7 +3428,7 @@
         <v/>
       </c>
     </row>
-    <row r="299" spans="1:23">
+    <row r="299" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A299">
         <v>295</v>
       </c>
@@ -3437,7 +3437,7 @@
         <v/>
       </c>
     </row>
-    <row r="300" spans="1:23">
+    <row r="300" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A300">
         <v>296</v>
       </c>
@@ -3446,7 +3446,7 @@
         <v/>
       </c>
     </row>
-    <row r="301" spans="1:23">
+    <row r="301" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A301">
         <v>297</v>
       </c>
@@ -3455,7 +3455,7 @@
         <v/>
       </c>
     </row>
-    <row r="302" spans="1:23">
+    <row r="302" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A302">
         <v>298</v>
       </c>
@@ -3464,7 +3464,7 @@
         <v/>
       </c>
     </row>
-    <row r="303" spans="1:23">
+    <row r="303" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A303">
         <v>299</v>
       </c>
@@ -3473,7 +3473,7 @@
         <v/>
       </c>
     </row>
-    <row r="304" spans="1:23">
+    <row r="304" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A304">
         <v>300</v>
       </c>
@@ -3482,7 +3482,7 @@
         <v/>
       </c>
     </row>
-    <row r="305" spans="1:23">
+    <row r="305" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A305">
         <v>301</v>
       </c>
@@ -3491,7 +3491,7 @@
         <v/>
       </c>
     </row>
-    <row r="306" spans="1:23">
+    <row r="306" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A306">
         <v>302</v>
       </c>
@@ -3500,7 +3500,7 @@
         <v/>
       </c>
     </row>
-    <row r="307" spans="1:23">
+    <row r="307" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A307">
         <v>303</v>
       </c>
@@ -3509,7 +3509,7 @@
         <v/>
       </c>
     </row>
-    <row r="308" spans="1:23">
+    <row r="308" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A308">
         <v>304</v>
       </c>
@@ -3518,7 +3518,7 @@
         <v/>
       </c>
     </row>
-    <row r="309" spans="1:23">
+    <row r="309" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A309">
         <v>305</v>
       </c>
@@ -3527,7 +3527,7 @@
         <v/>
       </c>
     </row>
-    <row r="310" spans="1:23">
+    <row r="310" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A310">
         <v>306</v>
       </c>
@@ -3536,7 +3536,7 @@
         <v/>
       </c>
     </row>
-    <row r="311" spans="1:23">
+    <row r="311" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A311">
         <v>307</v>
       </c>
@@ -3545,7 +3545,7 @@
         <v/>
       </c>
     </row>
-    <row r="312" spans="1:23">
+    <row r="312" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A312">
         <v>308</v>
       </c>
@@ -3554,7 +3554,7 @@
         <v/>
       </c>
     </row>
-    <row r="313" spans="1:23">
+    <row r="313" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A313">
         <v>309</v>
       </c>
@@ -3563,7 +3563,7 @@
         <v/>
       </c>
     </row>
-    <row r="314" spans="1:23">
+    <row r="314" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A314">
         <v>310</v>
       </c>
@@ -3572,7 +3572,7 @@
         <v/>
       </c>
     </row>
-    <row r="315" spans="1:23">
+    <row r="315" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A315">
         <v>311</v>
       </c>
@@ -3581,7 +3581,7 @@
         <v/>
       </c>
     </row>
-    <row r="316" spans="1:23">
+    <row r="316" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A316">
         <v>312</v>
       </c>
@@ -3590,7 +3590,7 @@
         <v/>
       </c>
     </row>
-    <row r="317" spans="1:23">
+    <row r="317" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A317">
         <v>313</v>
       </c>
@@ -3599,7 +3599,7 @@
         <v/>
       </c>
     </row>
-    <row r="318" spans="1:23">
+    <row r="318" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A318">
         <v>314</v>
       </c>
@@ -3608,7 +3608,7 @@
         <v/>
       </c>
     </row>
-    <row r="319" spans="1:23">
+    <row r="319" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A319">
         <v>315</v>
       </c>
@@ -3617,7 +3617,7 @@
         <v/>
       </c>
     </row>
-    <row r="320" spans="1:23">
+    <row r="320" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A320">
         <v>316</v>
       </c>
@@ -3626,7 +3626,7 @@
         <v/>
       </c>
     </row>
-    <row r="321" spans="1:23">
+    <row r="321" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A321">
         <v>317</v>
       </c>
@@ -3635,7 +3635,7 @@
         <v/>
       </c>
     </row>
-    <row r="322" spans="1:23">
+    <row r="322" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A322">
         <v>318</v>
       </c>
@@ -3644,7 +3644,7 @@
         <v/>
       </c>
     </row>
-    <row r="323" spans="1:23">
+    <row r="323" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A323">
         <v>319</v>
       </c>
@@ -3653,7 +3653,7 @@
         <v/>
       </c>
     </row>
-    <row r="324" spans="1:23">
+    <row r="324" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A324">
         <v>320</v>
       </c>
@@ -3662,7 +3662,7 @@
         <v/>
       </c>
     </row>
-    <row r="325" spans="1:23">
+    <row r="325" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A325">
         <v>321</v>
       </c>
@@ -3671,7 +3671,7 @@
         <v/>
       </c>
     </row>
-    <row r="326" spans="1:23">
+    <row r="326" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A326">
         <v>322</v>
       </c>
@@ -3680,7 +3680,7 @@
         <v/>
       </c>
     </row>
-    <row r="327" spans="1:23">
+    <row r="327" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A327">
         <v>323</v>
       </c>
@@ -3689,7 +3689,7 @@
         <v/>
       </c>
     </row>
-    <row r="328" spans="1:23">
+    <row r="328" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A328">
         <v>324</v>
       </c>
@@ -3698,7 +3698,7 @@
         <v/>
       </c>
     </row>
-    <row r="329" spans="1:23">
+    <row r="329" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A329">
         <v>325</v>
       </c>
@@ -3707,7 +3707,7 @@
         <v/>
       </c>
     </row>
-    <row r="330" spans="1:23">
+    <row r="330" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A330">
         <v>326</v>
       </c>
@@ -3716,7 +3716,7 @@
         <v/>
       </c>
     </row>
-    <row r="331" spans="1:23">
+    <row r="331" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A331">
         <v>327</v>
       </c>
@@ -3725,7 +3725,7 @@
         <v/>
       </c>
     </row>
-    <row r="332" spans="1:23">
+    <row r="332" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A332">
         <v>328</v>
       </c>
@@ -3734,7 +3734,7 @@
         <v/>
       </c>
     </row>
-    <row r="333" spans="1:23">
+    <row r="333" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A333">
         <v>329</v>
       </c>
@@ -3743,7 +3743,7 @@
         <v/>
       </c>
     </row>
-    <row r="334" spans="1:23">
+    <row r="334" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A334">
         <v>330</v>
       </c>
@@ -3752,7 +3752,7 @@
         <v/>
       </c>
     </row>
-    <row r="335" spans="1:23">
+    <row r="335" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A335">
         <v>331</v>
       </c>
@@ -3761,7 +3761,7 @@
         <v/>
       </c>
     </row>
-    <row r="336" spans="1:23">
+    <row r="336" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A336">
         <v>332</v>
       </c>
@@ -3770,7 +3770,7 @@
         <v/>
       </c>
     </row>
-    <row r="337" spans="1:23">
+    <row r="337" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A337">
         <v>333</v>
       </c>
@@ -3779,7 +3779,7 @@
         <v/>
       </c>
     </row>
-    <row r="338" spans="1:23">
+    <row r="338" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A338">
         <v>334</v>
       </c>
@@ -3788,7 +3788,7 @@
         <v/>
       </c>
     </row>
-    <row r="339" spans="1:23">
+    <row r="339" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A339">
         <v>335</v>
       </c>
@@ -3797,7 +3797,7 @@
         <v/>
       </c>
     </row>
-    <row r="340" spans="1:23">
+    <row r="340" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A340">
         <v>336</v>
       </c>
@@ -3806,7 +3806,7 @@
         <v/>
       </c>
     </row>
-    <row r="341" spans="1:23">
+    <row r="341" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A341">
         <v>337</v>
       </c>
@@ -3815,7 +3815,7 @@
         <v/>
       </c>
     </row>
-    <row r="342" spans="1:23">
+    <row r="342" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A342">
         <v>338</v>
       </c>
@@ -3824,7 +3824,7 @@
         <v/>
       </c>
     </row>
-    <row r="343" spans="1:23">
+    <row r="343" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A343">
         <v>339</v>
       </c>
@@ -3833,7 +3833,7 @@
         <v/>
       </c>
     </row>
-    <row r="344" spans="1:23">
+    <row r="344" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A344">
         <v>340</v>
       </c>
@@ -3842,7 +3842,7 @@
         <v/>
       </c>
     </row>
-    <row r="345" spans="1:23">
+    <row r="345" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A345">
         <v>341</v>
       </c>
@@ -3851,7 +3851,7 @@
         <v/>
       </c>
     </row>
-    <row r="346" spans="1:23">
+    <row r="346" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A346">
         <v>342</v>
       </c>
@@ -3860,7 +3860,7 @@
         <v/>
       </c>
     </row>
-    <row r="347" spans="1:23">
+    <row r="347" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A347">
         <v>343</v>
       </c>
@@ -3869,7 +3869,7 @@
         <v/>
       </c>
     </row>
-    <row r="348" spans="1:23">
+    <row r="348" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A348">
         <v>344</v>
       </c>
@@ -3878,7 +3878,7 @@
         <v/>
       </c>
     </row>
-    <row r="349" spans="1:23">
+    <row r="349" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A349">
         <v>345</v>
       </c>
@@ -3887,7 +3887,7 @@
         <v/>
       </c>
     </row>
-    <row r="350" spans="1:23">
+    <row r="350" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A350">
         <v>346</v>
       </c>
@@ -3896,7 +3896,7 @@
         <v/>
       </c>
     </row>
-    <row r="351" spans="1:23">
+    <row r="351" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A351">
         <v>347</v>
       </c>
@@ -3905,7 +3905,7 @@
         <v/>
       </c>
     </row>
-    <row r="352" spans="1:23">
+    <row r="352" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A352">
         <v>348</v>
       </c>
@@ -3914,7 +3914,7 @@
         <v/>
       </c>
     </row>
-    <row r="353" spans="1:23">
+    <row r="353" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A353">
         <v>349</v>
       </c>
@@ -3923,7 +3923,7 @@
         <v/>
       </c>
     </row>
-    <row r="354" spans="1:23">
+    <row r="354" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A354">
         <v>350</v>
       </c>
@@ -3932,7 +3932,7 @@
         <v/>
       </c>
     </row>
-    <row r="355" spans="1:23">
+    <row r="355" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A355">
         <v>351</v>
       </c>
@@ -3941,7 +3941,7 @@
         <v/>
       </c>
     </row>
-    <row r="356" spans="1:23">
+    <row r="356" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A356">
         <v>352</v>
       </c>
@@ -3950,7 +3950,7 @@
         <v/>
       </c>
     </row>
-    <row r="357" spans="1:23">
+    <row r="357" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A357">
         <v>353</v>
       </c>
@@ -3959,7 +3959,7 @@
         <v/>
       </c>
     </row>
-    <row r="358" spans="1:23">
+    <row r="358" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A358">
         <v>354</v>
       </c>
@@ -3968,7 +3968,7 @@
         <v/>
       </c>
     </row>
-    <row r="359" spans="1:23">
+    <row r="359" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A359">
         <v>355</v>
       </c>
@@ -3977,7 +3977,7 @@
         <v/>
       </c>
     </row>
-    <row r="360" spans="1:23">
+    <row r="360" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A360">
         <v>356</v>
       </c>
@@ -3986,7 +3986,7 @@
         <v/>
       </c>
     </row>
-    <row r="361" spans="1:23">
+    <row r="361" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A361">
         <v>357</v>
       </c>
@@ -3995,7 +3995,7 @@
         <v/>
       </c>
     </row>
-    <row r="362" spans="1:23">
+    <row r="362" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A362">
         <v>358</v>
       </c>
@@ -4004,7 +4004,7 @@
         <v/>
       </c>
     </row>
-    <row r="363" spans="1:23">
+    <row r="363" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A363">
         <v>359</v>
       </c>
@@ -4013,7 +4013,7 @@
         <v/>
       </c>
     </row>
-    <row r="364" spans="1:23">
+    <row r="364" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A364">
         <v>360</v>
       </c>
@@ -4022,7 +4022,7 @@
         <v/>
       </c>
     </row>
-    <row r="365" spans="1:23">
+    <row r="365" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A365">
         <v>361</v>
       </c>
@@ -4031,7 +4031,7 @@
         <v/>
       </c>
     </row>
-    <row r="366" spans="1:23">
+    <row r="366" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A366">
         <v>362</v>
       </c>
@@ -4040,7 +4040,7 @@
         <v/>
       </c>
     </row>
-    <row r="367" spans="1:23">
+    <row r="367" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A367">
         <v>363</v>
       </c>
@@ -4049,7 +4049,7 @@
         <v/>
       </c>
     </row>
-    <row r="368" spans="1:23">
+    <row r="368" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A368">
         <v>364</v>
       </c>
@@ -4058,7 +4058,7 @@
         <v/>
       </c>
     </row>
-    <row r="369" spans="1:23">
+    <row r="369" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A369">
         <v>365</v>
       </c>
@@ -4067,7 +4067,7 @@
         <v/>
       </c>
     </row>
-    <row r="370" spans="1:23">
+    <row r="370" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A370">
         <v>366</v>
       </c>
@@ -4076,7 +4076,7 @@
         <v/>
       </c>
     </row>
-    <row r="371" spans="1:23">
+    <row r="371" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A371">
         <v>367</v>
       </c>
@@ -4085,7 +4085,7 @@
         <v/>
       </c>
     </row>
-    <row r="372" spans="1:23">
+    <row r="372" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A372">
         <v>368</v>
       </c>
@@ -4094,7 +4094,7 @@
         <v/>
       </c>
     </row>
-    <row r="373" spans="1:23">
+    <row r="373" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A373">
         <v>369</v>
       </c>
@@ -4103,7 +4103,7 @@
         <v/>
       </c>
     </row>
-    <row r="374" spans="1:23">
+    <row r="374" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A374">
         <v>370</v>
       </c>
@@ -4112,7 +4112,7 @@
         <v/>
       </c>
     </row>
-    <row r="375" spans="1:23">
+    <row r="375" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A375">
         <v>371</v>
       </c>
@@ -4121,7 +4121,7 @@
         <v/>
       </c>
     </row>
-    <row r="376" spans="1:23">
+    <row r="376" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A376">
         <v>372</v>
       </c>
@@ -4130,7 +4130,7 @@
         <v/>
       </c>
     </row>
-    <row r="377" spans="1:23">
+    <row r="377" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A377">
         <v>373</v>
       </c>
@@ -4139,7 +4139,7 @@
         <v/>
       </c>
     </row>
-    <row r="378" spans="1:23">
+    <row r="378" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A378">
         <v>374</v>
       </c>
@@ -4148,7 +4148,7 @@
         <v/>
       </c>
     </row>
-    <row r="379" spans="1:23">
+    <row r="379" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A379">
         <v>375</v>
       </c>
@@ -4157,7 +4157,7 @@
         <v/>
       </c>
     </row>
-    <row r="380" spans="1:23">
+    <row r="380" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A380">
         <v>376</v>
       </c>
@@ -4166,7 +4166,7 @@
         <v/>
       </c>
     </row>
-    <row r="381" spans="1:23">
+    <row r="381" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A381">
         <v>377</v>
       </c>
@@ -4175,7 +4175,7 @@
         <v/>
       </c>
     </row>
-    <row r="382" spans="1:23">
+    <row r="382" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A382">
         <v>378</v>
       </c>
@@ -4184,7 +4184,7 @@
         <v/>
       </c>
     </row>
-    <row r="383" spans="1:23">
+    <row r="383" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A383">
         <v>379</v>
       </c>
@@ -4193,7 +4193,7 @@
         <v/>
       </c>
     </row>
-    <row r="384" spans="1:23">
+    <row r="384" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A384">
         <v>380</v>
       </c>
@@ -4202,7 +4202,7 @@
         <v/>
       </c>
     </row>
-    <row r="385" spans="1:23">
+    <row r="385" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A385">
         <v>381</v>
       </c>
@@ -4211,7 +4211,7 @@
         <v/>
       </c>
     </row>
-    <row r="386" spans="1:23">
+    <row r="386" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A386">
         <v>382</v>
       </c>
@@ -4220,7 +4220,7 @@
         <v/>
       </c>
     </row>
-    <row r="387" spans="1:23">
+    <row r="387" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A387">
         <v>383</v>
       </c>
@@ -4229,7 +4229,7 @@
         <v/>
       </c>
     </row>
-    <row r="388" spans="1:23">
+    <row r="388" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A388">
         <v>384</v>
       </c>
@@ -4238,7 +4238,7 @@
         <v/>
       </c>
     </row>
-    <row r="389" spans="1:23">
+    <row r="389" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A389">
         <v>385</v>
       </c>
@@ -4247,7 +4247,7 @@
         <v/>
       </c>
     </row>
-    <row r="390" spans="1:23">
+    <row r="390" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A390">
         <v>386</v>
       </c>
@@ -4256,7 +4256,7 @@
         <v/>
       </c>
     </row>
-    <row r="391" spans="1:23">
+    <row r="391" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A391">
         <v>387</v>
       </c>
@@ -4265,7 +4265,7 @@
         <v/>
       </c>
     </row>
-    <row r="392" spans="1:23">
+    <row r="392" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A392">
         <v>388</v>
       </c>
@@ -4274,7 +4274,7 @@
         <v/>
       </c>
     </row>
-    <row r="393" spans="1:23">
+    <row r="393" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A393">
         <v>389</v>
       </c>
@@ -4283,7 +4283,7 @@
         <v/>
       </c>
     </row>
-    <row r="394" spans="1:23">
+    <row r="394" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A394">
         <v>390</v>
       </c>
@@ -4292,7 +4292,7 @@
         <v/>
       </c>
     </row>
-    <row r="395" spans="1:23">
+    <row r="395" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A395">
         <v>391</v>
       </c>
@@ -4301,7 +4301,7 @@
         <v/>
       </c>
     </row>
-    <row r="396" spans="1:23">
+    <row r="396" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A396">
         <v>392</v>
       </c>
@@ -4310,7 +4310,7 @@
         <v/>
       </c>
     </row>
-    <row r="397" spans="1:23">
+    <row r="397" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A397">
         <v>393</v>
       </c>
@@ -4319,7 +4319,7 @@
         <v/>
       </c>
     </row>
-    <row r="398" spans="1:23">
+    <row r="398" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A398">
         <v>394</v>
       </c>
@@ -4328,7 +4328,7 @@
         <v/>
       </c>
     </row>
-    <row r="399" spans="1:23">
+    <row r="399" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A399">
         <v>395</v>
       </c>
@@ -4337,7 +4337,7 @@
         <v/>
       </c>
     </row>
-    <row r="400" spans="1:23">
+    <row r="400" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A400">
         <v>396</v>
       </c>
@@ -4346,7 +4346,7 @@
         <v/>
       </c>
     </row>
-    <row r="401" spans="1:23">
+    <row r="401" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A401">
         <v>397</v>
       </c>
@@ -4355,7 +4355,7 @@
         <v/>
       </c>
     </row>
-    <row r="402" spans="1:23">
+    <row r="402" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A402">
         <v>398</v>
       </c>
@@ -4364,7 +4364,7 @@
         <v/>
       </c>
     </row>
-    <row r="403" spans="1:23">
+    <row r="403" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A403">
         <v>399</v>
       </c>
@@ -4373,7 +4373,7 @@
         <v/>
       </c>
     </row>
-    <row r="404" spans="1:23">
+    <row r="404" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A404">
         <v>400</v>
       </c>
@@ -4400,7 +4400,7 @@
       <selection activeCell="W5" sqref="W5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
     <col min="2" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
@@ -4422,7 +4422,7 @@
     <col min="23" max="23" width="55.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:23" s="4" customFormat="1" ht="43.5" customHeight="1">
+    <row r="2" spans="1:23" s="4" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="str">
         <f>PasteValuesHere!A2</f>
         <v>Sample #</v>
@@ -4504,14 +4504,14 @@
         <v>Additional Information</v>
       </c>
       <c r="U2" s="5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="V2" s="5"/>
       <c r="W2" s="5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:23">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="str">
         <f>PasteValuesHere!A3</f>
         <v>Example</v>
@@ -4599,10 +4599,10 @@
         <v>1_2_3_Part1_Coh1_220405_1_2_ID-1001_AJ_0.5HR_13:27_SN12345678_split2</v>
       </c>
     </row>
-    <row r="4" spans="1:23">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="H4" s="9"/>
     </row>
-    <row r="5" spans="1:23">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5">
         <f>IF(PasteValuesHere!A5&lt;&gt;"",PasteValuesHere!A5,"")</f>
         <v>1</v>
@@ -4692,7 +4692,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:23">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6">
         <f>IF(PasteValuesHere!A6&lt;&gt;"",PasteValuesHere!A6,"")</f>
         <v>2</v>
@@ -4782,7 +4782,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:23">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7">
         <f>IF(PasteValuesHere!A7&lt;&gt;"",PasteValuesHere!A7,"")</f>
         <v>3</v>
@@ -4872,7 +4872,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:23">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8">
         <f>IF(PasteValuesHere!A8&lt;&gt;"",PasteValuesHere!A8,"")</f>
         <v>4</v>
@@ -4962,7 +4962,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:23">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9">
         <f>IF(PasteValuesHere!A9&lt;&gt;"",PasteValuesHere!A9,"")</f>
         <v>5</v>
@@ -5052,7 +5052,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:23">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10">
         <f>IF(PasteValuesHere!A10&lt;&gt;"",PasteValuesHere!A10,"")</f>
         <v>6</v>
@@ -5142,7 +5142,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:23">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11">
         <f>IF(PasteValuesHere!A11&lt;&gt;"",PasteValuesHere!A11,"")</f>
         <v>7</v>
@@ -5232,7 +5232,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:23">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A12">
         <f>IF(PasteValuesHere!A12&lt;&gt;"",PasteValuesHere!A12,"")</f>
         <v>8</v>
@@ -5322,7 +5322,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:23">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A13">
         <f>IF(PasteValuesHere!A13&lt;&gt;"",PasteValuesHere!A13,"")</f>
         <v>9</v>
@@ -5412,7 +5412,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:23">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14">
         <f>IF(PasteValuesHere!A14&lt;&gt;"",PasteValuesHere!A14,"")</f>
         <v>10</v>
@@ -5502,7 +5502,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:23">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A15">
         <f>IF(PasteValuesHere!A15&lt;&gt;"",PasteValuesHere!A15,"")</f>
         <v>11</v>
@@ -5592,7 +5592,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:23">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A16">
         <f>IF(PasteValuesHere!A16&lt;&gt;"",PasteValuesHere!A16,"")</f>
         <v>12</v>
@@ -5682,7 +5682,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:23">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A17">
         <f>IF(PasteValuesHere!A17&lt;&gt;"",PasteValuesHere!A17,"")</f>
         <v>13</v>
@@ -5772,7 +5772,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:23">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A18">
         <f>IF(PasteValuesHere!A18&lt;&gt;"",PasteValuesHere!A18,"")</f>
         <v>14</v>
@@ -5862,7 +5862,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:23">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A19">
         <f>IF(PasteValuesHere!A19&lt;&gt;"",PasteValuesHere!A19,"")</f>
         <v>15</v>
@@ -5952,7 +5952,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:23">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A20">
         <f>IF(PasteValuesHere!A20&lt;&gt;"",PasteValuesHere!A20,"")</f>
         <v>16</v>
@@ -6042,7 +6042,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:23">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A21">
         <f>IF(PasteValuesHere!A21&lt;&gt;"",PasteValuesHere!A21,"")</f>
         <v>17</v>
@@ -6132,7 +6132,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:23">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A22">
         <f>IF(PasteValuesHere!A22&lt;&gt;"",PasteValuesHere!A22,"")</f>
         <v>18</v>
@@ -6222,7 +6222,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:23">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A23">
         <f>IF(PasteValuesHere!A23&lt;&gt;"",PasteValuesHere!A23,"")</f>
         <v>19</v>
@@ -6312,7 +6312,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:23">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A24">
         <f>IF(PasteValuesHere!A24&lt;&gt;"",PasteValuesHere!A24,"")</f>
         <v>20</v>
@@ -6402,7 +6402,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:23">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A25">
         <f>IF(PasteValuesHere!A25&lt;&gt;"",PasteValuesHere!A25,"")</f>
         <v>21</v>
@@ -6492,7 +6492,7 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:23">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A26">
         <f>IF(PasteValuesHere!A26&lt;&gt;"",PasteValuesHere!A26,"")</f>
         <v>22</v>
@@ -6582,7 +6582,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:23">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A27">
         <f>IF(PasteValuesHere!A27&lt;&gt;"",PasteValuesHere!A27,"")</f>
         <v>23</v>
@@ -6672,7 +6672,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:23">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A28">
         <f>IF(PasteValuesHere!A28&lt;&gt;"",PasteValuesHere!A28,"")</f>
         <v>24</v>
@@ -6762,7 +6762,7 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:23">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A29">
         <f>IF(PasteValuesHere!A29&lt;&gt;"",PasteValuesHere!A29,"")</f>
         <v>25</v>
@@ -6852,7 +6852,7 @@
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:23">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A30">
         <f>IF(PasteValuesHere!A30&lt;&gt;"",PasteValuesHere!A30,"")</f>
         <v>26</v>
@@ -6942,7 +6942,7 @@
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:23">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A31">
         <f>IF(PasteValuesHere!A31&lt;&gt;"",PasteValuesHere!A31,"")</f>
         <v>27</v>
@@ -7032,7 +7032,7 @@
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:23">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A32">
         <f>IF(PasteValuesHere!A32&lt;&gt;"",PasteValuesHere!A32,"")</f>
         <v>28</v>
@@ -7122,7 +7122,7 @@
         <v/>
       </c>
     </row>
-    <row r="33" spans="1:23">
+    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A33">
         <f>IF(PasteValuesHere!A33&lt;&gt;"",PasteValuesHere!A33,"")</f>
         <v>29</v>
@@ -7212,7 +7212,7 @@
         <v/>
       </c>
     </row>
-    <row r="34" spans="1:23">
+    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A34">
         <f>IF(PasteValuesHere!A34&lt;&gt;"",PasteValuesHere!A34,"")</f>
         <v>30</v>
@@ -7302,7 +7302,7 @@
         <v/>
       </c>
     </row>
-    <row r="35" spans="1:23">
+    <row r="35" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A35">
         <f>IF(PasteValuesHere!A35&lt;&gt;"",PasteValuesHere!A35,"")</f>
         <v>31</v>
@@ -7392,7 +7392,7 @@
         <v/>
       </c>
     </row>
-    <row r="36" spans="1:23">
+    <row r="36" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A36">
         <f>IF(PasteValuesHere!A36&lt;&gt;"",PasteValuesHere!A36,"")</f>
         <v>32</v>
@@ -7482,7 +7482,7 @@
         <v/>
       </c>
     </row>
-    <row r="37" spans="1:23">
+    <row r="37" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A37">
         <f>IF(PasteValuesHere!A37&lt;&gt;"",PasteValuesHere!A37,"")</f>
         <v>33</v>
@@ -7572,7 +7572,7 @@
         <v/>
       </c>
     </row>
-    <row r="38" spans="1:23">
+    <row r="38" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A38">
         <f>IF(PasteValuesHere!A38&lt;&gt;"",PasteValuesHere!A38,"")</f>
         <v>34</v>
@@ -7662,7 +7662,7 @@
         <v/>
       </c>
     </row>
-    <row r="39" spans="1:23">
+    <row r="39" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A39">
         <f>IF(PasteValuesHere!A39&lt;&gt;"",PasteValuesHere!A39,"")</f>
         <v>35</v>
@@ -7752,7 +7752,7 @@
         <v/>
       </c>
     </row>
-    <row r="40" spans="1:23">
+    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A40">
         <f>IF(PasteValuesHere!A40&lt;&gt;"",PasteValuesHere!A40,"")</f>
         <v>36</v>
@@ -7842,7 +7842,7 @@
         <v/>
       </c>
     </row>
-    <row r="41" spans="1:23">
+    <row r="41" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A41">
         <f>IF(PasteValuesHere!A41&lt;&gt;"",PasteValuesHere!A41,"")</f>
         <v>37</v>
@@ -7932,7 +7932,7 @@
         <v/>
       </c>
     </row>
-    <row r="42" spans="1:23">
+    <row r="42" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A42">
         <f>IF(PasteValuesHere!A42&lt;&gt;"",PasteValuesHere!A42,"")</f>
         <v>38</v>
@@ -8022,7 +8022,7 @@
         <v/>
       </c>
     </row>
-    <row r="43" spans="1:23">
+    <row r="43" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A43">
         <f>IF(PasteValuesHere!A43&lt;&gt;"",PasteValuesHere!A43,"")</f>
         <v>39</v>
@@ -8112,7 +8112,7 @@
         <v/>
       </c>
     </row>
-    <row r="44" spans="1:23">
+    <row r="44" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A44">
         <f>IF(PasteValuesHere!A44&lt;&gt;"",PasteValuesHere!A44,"")</f>
         <v>40</v>
@@ -8202,7 +8202,7 @@
         <v/>
       </c>
     </row>
-    <row r="45" spans="1:23">
+    <row r="45" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A45">
         <f>IF(PasteValuesHere!A45&lt;&gt;"",PasteValuesHere!A45,"")</f>
         <v>41</v>
@@ -8292,7 +8292,7 @@
         <v/>
       </c>
     </row>
-    <row r="46" spans="1:23">
+    <row r="46" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A46">
         <f>IF(PasteValuesHere!A46&lt;&gt;"",PasteValuesHere!A46,"")</f>
         <v>42</v>
@@ -8382,7 +8382,7 @@
         <v/>
       </c>
     </row>
-    <row r="47" spans="1:23">
+    <row r="47" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A47">
         <f>IF(PasteValuesHere!A47&lt;&gt;"",PasteValuesHere!A47,"")</f>
         <v>43</v>
@@ -8472,7 +8472,7 @@
         <v/>
       </c>
     </row>
-    <row r="48" spans="1:23">
+    <row r="48" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A48">
         <f>IF(PasteValuesHere!A48&lt;&gt;"",PasteValuesHere!A48,"")</f>
         <v>44</v>
@@ -8562,7 +8562,7 @@
         <v/>
       </c>
     </row>
-    <row r="49" spans="1:23">
+    <row r="49" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A49">
         <f>IF(PasteValuesHere!A49&lt;&gt;"",PasteValuesHere!A49,"")</f>
         <v>45</v>
@@ -8652,7 +8652,7 @@
         <v/>
       </c>
     </row>
-    <row r="50" spans="1:23">
+    <row r="50" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A50">
         <f>IF(PasteValuesHere!A50&lt;&gt;"",PasteValuesHere!A50,"")</f>
         <v>46</v>
@@ -8742,7 +8742,7 @@
         <v/>
       </c>
     </row>
-    <row r="51" spans="1:23">
+    <row r="51" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A51">
         <f>IF(PasteValuesHere!A51&lt;&gt;"",PasteValuesHere!A51,"")</f>
         <v>47</v>
@@ -8832,7 +8832,7 @@
         <v/>
       </c>
     </row>
-    <row r="52" spans="1:23">
+    <row r="52" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A52">
         <f>IF(PasteValuesHere!A52&lt;&gt;"",PasteValuesHere!A52,"")</f>
         <v>48</v>
@@ -8922,7 +8922,7 @@
         <v/>
       </c>
     </row>
-    <row r="53" spans="1:23">
+    <row r="53" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A53">
         <f>IF(PasteValuesHere!A53&lt;&gt;"",PasteValuesHere!A53,"")</f>
         <v>49</v>
@@ -9012,7 +9012,7 @@
         <v/>
       </c>
     </row>
-    <row r="54" spans="1:23">
+    <row r="54" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A54">
         <f>IF(PasteValuesHere!A54&lt;&gt;"",PasteValuesHere!A54,"")</f>
         <v>50</v>
@@ -9102,7 +9102,7 @@
         <v/>
       </c>
     </row>
-    <row r="55" spans="1:23">
+    <row r="55" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A55">
         <f>IF(PasteValuesHere!A55&lt;&gt;"",PasteValuesHere!A55,"")</f>
         <v>51</v>
@@ -9192,7 +9192,7 @@
         <v/>
       </c>
     </row>
-    <row r="56" spans="1:23">
+    <row r="56" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A56">
         <f>IF(PasteValuesHere!A56&lt;&gt;"",PasteValuesHere!A56,"")</f>
         <v>52</v>
@@ -9282,7 +9282,7 @@
         <v/>
       </c>
     </row>
-    <row r="57" spans="1:23">
+    <row r="57" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A57">
         <f>IF(PasteValuesHere!A57&lt;&gt;"",PasteValuesHere!A57,"")</f>
         <v>53</v>
@@ -9372,7 +9372,7 @@
         <v/>
       </c>
     </row>
-    <row r="58" spans="1:23">
+    <row r="58" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A58">
         <f>IF(PasteValuesHere!A58&lt;&gt;"",PasteValuesHere!A58,"")</f>
         <v>54</v>
@@ -9462,7 +9462,7 @@
         <v/>
       </c>
     </row>
-    <row r="59" spans="1:23">
+    <row r="59" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A59">
         <f>IF(PasteValuesHere!A59&lt;&gt;"",PasteValuesHere!A59,"")</f>
         <v>55</v>
@@ -9552,7 +9552,7 @@
         <v/>
       </c>
     </row>
-    <row r="60" spans="1:23">
+    <row r="60" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A60">
         <f>IF(PasteValuesHere!A60&lt;&gt;"",PasteValuesHere!A60,"")</f>
         <v>56</v>
@@ -9642,7 +9642,7 @@
         <v/>
       </c>
     </row>
-    <row r="61" spans="1:23">
+    <row r="61" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A61">
         <f>IF(PasteValuesHere!A61&lt;&gt;"",PasteValuesHere!A61,"")</f>
         <v>57</v>
@@ -9732,7 +9732,7 @@
         <v/>
       </c>
     </row>
-    <row r="62" spans="1:23">
+    <row r="62" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A62">
         <f>IF(PasteValuesHere!A62&lt;&gt;"",PasteValuesHere!A62,"")</f>
         <v>58</v>
@@ -9822,7 +9822,7 @@
         <v/>
       </c>
     </row>
-    <row r="63" spans="1:23">
+    <row r="63" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A63">
         <f>IF(PasteValuesHere!A63&lt;&gt;"",PasteValuesHere!A63,"")</f>
         <v>59</v>
@@ -9912,7 +9912,7 @@
         <v/>
       </c>
     </row>
-    <row r="64" spans="1:23">
+    <row r="64" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A64">
         <f>IF(PasteValuesHere!A64&lt;&gt;"",PasteValuesHere!A64,"")</f>
         <v>60</v>
@@ -10002,7 +10002,7 @@
         <v/>
       </c>
     </row>
-    <row r="65" spans="1:23">
+    <row r="65" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A65">
         <f>IF(PasteValuesHere!A65&lt;&gt;"",PasteValuesHere!A65,"")</f>
         <v>61</v>
@@ -10092,7 +10092,7 @@
         <v/>
       </c>
     </row>
-    <row r="66" spans="1:23">
+    <row r="66" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A66">
         <f>IF(PasteValuesHere!A66&lt;&gt;"",PasteValuesHere!A66,"")</f>
         <v>62</v>
@@ -10182,7 +10182,7 @@
         <v/>
       </c>
     </row>
-    <row r="67" spans="1:23">
+    <row r="67" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A67">
         <f>IF(PasteValuesHere!A67&lt;&gt;"",PasteValuesHere!A67,"")</f>
         <v>63</v>
@@ -10272,7 +10272,7 @@
         <v/>
       </c>
     </row>
-    <row r="68" spans="1:23">
+    <row r="68" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A68">
         <f>IF(PasteValuesHere!A68&lt;&gt;"",PasteValuesHere!A68,"")</f>
         <v>64</v>
@@ -10362,7 +10362,7 @@
         <v/>
       </c>
     </row>
-    <row r="69" spans="1:23">
+    <row r="69" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A69">
         <f>IF(PasteValuesHere!A69&lt;&gt;"",PasteValuesHere!A69,"")</f>
         <v>65</v>
@@ -10452,7 +10452,7 @@
         <v/>
       </c>
     </row>
-    <row r="70" spans="1:23">
+    <row r="70" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A70">
         <f>IF(PasteValuesHere!A70&lt;&gt;"",PasteValuesHere!A70,"")</f>
         <v>66</v>
@@ -10542,7 +10542,7 @@
         <v/>
       </c>
     </row>
-    <row r="71" spans="1:23">
+    <row r="71" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A71">
         <f>IF(PasteValuesHere!A71&lt;&gt;"",PasteValuesHere!A71,"")</f>
         <v>67</v>
@@ -10632,7 +10632,7 @@
         <v/>
       </c>
     </row>
-    <row r="72" spans="1:23">
+    <row r="72" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A72">
         <f>IF(PasteValuesHere!A72&lt;&gt;"",PasteValuesHere!A72,"")</f>
         <v>68</v>
@@ -10722,7 +10722,7 @@
         <v/>
       </c>
     </row>
-    <row r="73" spans="1:23">
+    <row r="73" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A73">
         <f>IF(PasteValuesHere!A73&lt;&gt;"",PasteValuesHere!A73,"")</f>
         <v>69</v>
@@ -10812,7 +10812,7 @@
         <v/>
       </c>
     </row>
-    <row r="74" spans="1:23">
+    <row r="74" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A74">
         <f>IF(PasteValuesHere!A74&lt;&gt;"",PasteValuesHere!A74,"")</f>
         <v>70</v>
@@ -10902,7 +10902,7 @@
         <v/>
       </c>
     </row>
-    <row r="75" spans="1:23">
+    <row r="75" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A75">
         <f>IF(PasteValuesHere!A75&lt;&gt;"",PasteValuesHere!A75,"")</f>
         <v>71</v>
@@ -10992,7 +10992,7 @@
         <v/>
       </c>
     </row>
-    <row r="76" spans="1:23">
+    <row r="76" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A76">
         <f>IF(PasteValuesHere!A76&lt;&gt;"",PasteValuesHere!A76,"")</f>
         <v>72</v>
@@ -11082,7 +11082,7 @@
         <v/>
       </c>
     </row>
-    <row r="77" spans="1:23">
+    <row r="77" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A77">
         <f>IF(PasteValuesHere!A77&lt;&gt;"",PasteValuesHere!A77,"")</f>
         <v>73</v>
@@ -11172,7 +11172,7 @@
         <v/>
       </c>
     </row>
-    <row r="78" spans="1:23">
+    <row r="78" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A78">
         <f>IF(PasteValuesHere!A78&lt;&gt;"",PasteValuesHere!A78,"")</f>
         <v>74</v>
@@ -11262,7 +11262,7 @@
         <v/>
       </c>
     </row>
-    <row r="79" spans="1:23">
+    <row r="79" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A79">
         <f>IF(PasteValuesHere!A79&lt;&gt;"",PasteValuesHere!A79,"")</f>
         <v>75</v>
@@ -11352,7 +11352,7 @@
         <v/>
       </c>
     </row>
-    <row r="80" spans="1:23">
+    <row r="80" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A80">
         <f>IF(PasteValuesHere!A80&lt;&gt;"",PasteValuesHere!A80,"")</f>
         <v>76</v>
@@ -11442,7 +11442,7 @@
         <v/>
       </c>
     </row>
-    <row r="81" spans="1:23">
+    <row r="81" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A81">
         <f>IF(PasteValuesHere!A81&lt;&gt;"",PasteValuesHere!A81,"")</f>
         <v>77</v>
@@ -11532,7 +11532,7 @@
         <v/>
       </c>
     </row>
-    <row r="82" spans="1:23">
+    <row r="82" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A82">
         <f>IF(PasteValuesHere!A82&lt;&gt;"",PasteValuesHere!A82,"")</f>
         <v>78</v>
@@ -11622,7 +11622,7 @@
         <v/>
       </c>
     </row>
-    <row r="83" spans="1:23">
+    <row r="83" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A83">
         <f>IF(PasteValuesHere!A83&lt;&gt;"",PasteValuesHere!A83,"")</f>
         <v>79</v>
@@ -11712,7 +11712,7 @@
         <v/>
       </c>
     </row>
-    <row r="84" spans="1:23">
+    <row r="84" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A84">
         <f>IF(PasteValuesHere!A84&lt;&gt;"",PasteValuesHere!A84,"")</f>
         <v>80</v>
@@ -11802,7 +11802,7 @@
         <v/>
       </c>
     </row>
-    <row r="85" spans="1:23">
+    <row r="85" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A85">
         <f>IF(PasteValuesHere!A85&lt;&gt;"",PasteValuesHere!A85,"")</f>
         <v>81</v>
@@ -11892,7 +11892,7 @@
         <v/>
       </c>
     </row>
-    <row r="86" spans="1:23">
+    <row r="86" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A86">
         <f>IF(PasteValuesHere!A86&lt;&gt;"",PasteValuesHere!A86,"")</f>
         <v>82</v>
@@ -11982,7 +11982,7 @@
         <v/>
       </c>
     </row>
-    <row r="87" spans="1:23">
+    <row r="87" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A87">
         <f>IF(PasteValuesHere!A87&lt;&gt;"",PasteValuesHere!A87,"")</f>
         <v>83</v>
@@ -12072,7 +12072,7 @@
         <v/>
       </c>
     </row>
-    <row r="88" spans="1:23">
+    <row r="88" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A88">
         <f>IF(PasteValuesHere!A88&lt;&gt;"",PasteValuesHere!A88,"")</f>
         <v>84</v>
@@ -12162,7 +12162,7 @@
         <v/>
       </c>
     </row>
-    <row r="89" spans="1:23">
+    <row r="89" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A89">
         <f>IF(PasteValuesHere!A89&lt;&gt;"",PasteValuesHere!A89,"")</f>
         <v>85</v>
@@ -12252,7 +12252,7 @@
         <v/>
       </c>
     </row>
-    <row r="90" spans="1:23">
+    <row r="90" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A90">
         <f>IF(PasteValuesHere!A90&lt;&gt;"",PasteValuesHere!A90,"")</f>
         <v>86</v>
@@ -12342,7 +12342,7 @@
         <v/>
       </c>
     </row>
-    <row r="91" spans="1:23">
+    <row r="91" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A91">
         <f>IF(PasteValuesHere!A91&lt;&gt;"",PasteValuesHere!A91,"")</f>
         <v>87</v>
@@ -12432,7 +12432,7 @@
         <v/>
       </c>
     </row>
-    <row r="92" spans="1:23">
+    <row r="92" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A92">
         <f>IF(PasteValuesHere!A92&lt;&gt;"",PasteValuesHere!A92,"")</f>
         <v>88</v>
@@ -12522,7 +12522,7 @@
         <v/>
       </c>
     </row>
-    <row r="93" spans="1:23">
+    <row r="93" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A93">
         <f>IF(PasteValuesHere!A93&lt;&gt;"",PasteValuesHere!A93,"")</f>
         <v>89</v>
@@ -12612,7 +12612,7 @@
         <v/>
       </c>
     </row>
-    <row r="94" spans="1:23">
+    <row r="94" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A94">
         <f>IF(PasteValuesHere!A94&lt;&gt;"",PasteValuesHere!A94,"")</f>
         <v>90</v>
@@ -12702,7 +12702,7 @@
         <v/>
       </c>
     </row>
-    <row r="95" spans="1:23">
+    <row r="95" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A95">
         <f>IF(PasteValuesHere!A95&lt;&gt;"",PasteValuesHere!A95,"")</f>
         <v>91</v>
@@ -12792,7 +12792,7 @@
         <v/>
       </c>
     </row>
-    <row r="96" spans="1:23">
+    <row r="96" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A96">
         <f>IF(PasteValuesHere!A96&lt;&gt;"",PasteValuesHere!A96,"")</f>
         <v>92</v>
@@ -12882,7 +12882,7 @@
         <v/>
       </c>
     </row>
-    <row r="97" spans="1:23">
+    <row r="97" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A97">
         <f>IF(PasteValuesHere!A97&lt;&gt;"",PasteValuesHere!A97,"")</f>
         <v>93</v>
@@ -12972,7 +12972,7 @@
         <v/>
       </c>
     </row>
-    <row r="98" spans="1:23">
+    <row r="98" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A98">
         <f>IF(PasteValuesHere!A98&lt;&gt;"",PasteValuesHere!A98,"")</f>
         <v>94</v>
@@ -13062,7 +13062,7 @@
         <v/>
       </c>
     </row>
-    <row r="99" spans="1:23">
+    <row r="99" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A99">
         <f>IF(PasteValuesHere!A99&lt;&gt;"",PasteValuesHere!A99,"")</f>
         <v>95</v>
@@ -13152,7 +13152,7 @@
         <v/>
       </c>
     </row>
-    <row r="100" spans="1:23">
+    <row r="100" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A100">
         <f>IF(PasteValuesHere!A100&lt;&gt;"",PasteValuesHere!A100,"")</f>
         <v>96</v>
@@ -13242,7 +13242,7 @@
         <v/>
       </c>
     </row>
-    <row r="101" spans="1:23">
+    <row r="101" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A101">
         <f>IF(PasteValuesHere!A101&lt;&gt;"",PasteValuesHere!A101,"")</f>
         <v>97</v>
@@ -13332,7 +13332,7 @@
         <v/>
       </c>
     </row>
-    <row r="102" spans="1:23">
+    <row r="102" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A102">
         <f>IF(PasteValuesHere!A102&lt;&gt;"",PasteValuesHere!A102,"")</f>
         <v>98</v>
@@ -13422,7 +13422,7 @@
         <v/>
       </c>
     </row>
-    <row r="103" spans="1:23">
+    <row r="103" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A103">
         <f>IF(PasteValuesHere!A103&lt;&gt;"",PasteValuesHere!A103,"")</f>
         <v>99</v>
@@ -13512,7 +13512,7 @@
         <v/>
       </c>
     </row>
-    <row r="104" spans="1:23">
+    <row r="104" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A104">
         <f>IF(PasteValuesHere!A104&lt;&gt;"",PasteValuesHere!A104,"")</f>
         <v>100</v>
@@ -13602,7 +13602,7 @@
         <v/>
       </c>
     </row>
-    <row r="105" spans="1:23">
+    <row r="105" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A105">
         <f>IF(PasteValuesHere!A105&lt;&gt;"",PasteValuesHere!A105,"")</f>
         <v>101</v>
@@ -13692,7 +13692,7 @@
         <v/>
       </c>
     </row>
-    <row r="106" spans="1:23">
+    <row r="106" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A106">
         <f>IF(PasteValuesHere!A106&lt;&gt;"",PasteValuesHere!A106,"")</f>
         <v>102</v>
@@ -13782,7 +13782,7 @@
         <v/>
       </c>
     </row>
-    <row r="107" spans="1:23">
+    <row r="107" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A107">
         <f>IF(PasteValuesHere!A107&lt;&gt;"",PasteValuesHere!A107,"")</f>
         <v>103</v>
@@ -13872,7 +13872,7 @@
         <v/>
       </c>
     </row>
-    <row r="108" spans="1:23">
+    <row r="108" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A108">
         <f>IF(PasteValuesHere!A108&lt;&gt;"",PasteValuesHere!A108,"")</f>
         <v>104</v>
@@ -13962,7 +13962,7 @@
         <v/>
       </c>
     </row>
-    <row r="109" spans="1:23">
+    <row r="109" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A109">
         <f>IF(PasteValuesHere!A109&lt;&gt;"",PasteValuesHere!A109,"")</f>
         <v>105</v>
@@ -14052,7 +14052,7 @@
         <v/>
       </c>
     </row>
-    <row r="110" spans="1:23">
+    <row r="110" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A110">
         <f>IF(PasteValuesHere!A110&lt;&gt;"",PasteValuesHere!A110,"")</f>
         <v>106</v>
@@ -14142,7 +14142,7 @@
         <v/>
       </c>
     </row>
-    <row r="111" spans="1:23">
+    <row r="111" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A111">
         <f>IF(PasteValuesHere!A111&lt;&gt;"",PasteValuesHere!A111,"")</f>
         <v>107</v>
@@ -14232,7 +14232,7 @@
         <v/>
       </c>
     </row>
-    <row r="112" spans="1:23">
+    <row r="112" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A112">
         <f>IF(PasteValuesHere!A112&lt;&gt;"",PasteValuesHere!A112,"")</f>
         <v>108</v>
@@ -14322,7 +14322,7 @@
         <v/>
       </c>
     </row>
-    <row r="113" spans="1:23">
+    <row r="113" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A113">
         <f>IF(PasteValuesHere!A113&lt;&gt;"",PasteValuesHere!A113,"")</f>
         <v>109</v>
@@ -14412,7 +14412,7 @@
         <v/>
       </c>
     </row>
-    <row r="114" spans="1:23">
+    <row r="114" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A114">
         <f>IF(PasteValuesHere!A114&lt;&gt;"",PasteValuesHere!A114,"")</f>
         <v>110</v>
@@ -14502,7 +14502,7 @@
         <v/>
       </c>
     </row>
-    <row r="115" spans="1:23">
+    <row r="115" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A115">
         <f>IF(PasteValuesHere!A115&lt;&gt;"",PasteValuesHere!A115,"")</f>
         <v>111</v>
@@ -14592,7 +14592,7 @@
         <v/>
       </c>
     </row>
-    <row r="116" spans="1:23">
+    <row r="116" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A116">
         <f>IF(PasteValuesHere!A116&lt;&gt;"",PasteValuesHere!A116,"")</f>
         <v>112</v>
@@ -14682,7 +14682,7 @@
         <v/>
       </c>
     </row>
-    <row r="117" spans="1:23">
+    <row r="117" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A117">
         <f>IF(PasteValuesHere!A117&lt;&gt;"",PasteValuesHere!A117,"")</f>
         <v>113</v>
@@ -14772,7 +14772,7 @@
         <v/>
       </c>
     </row>
-    <row r="118" spans="1:23">
+    <row r="118" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A118">
         <f>IF(PasteValuesHere!A118&lt;&gt;"",PasteValuesHere!A118,"")</f>
         <v>114</v>
@@ -14862,7 +14862,7 @@
         <v/>
       </c>
     </row>
-    <row r="119" spans="1:23">
+    <row r="119" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A119">
         <f>IF(PasteValuesHere!A119&lt;&gt;"",PasteValuesHere!A119,"")</f>
         <v>115</v>
@@ -14952,7 +14952,7 @@
         <v/>
       </c>
     </row>
-    <row r="120" spans="1:23">
+    <row r="120" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A120">
         <f>IF(PasteValuesHere!A120&lt;&gt;"",PasteValuesHere!A120,"")</f>
         <v>116</v>
@@ -15042,7 +15042,7 @@
         <v/>
       </c>
     </row>
-    <row r="121" spans="1:23">
+    <row r="121" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A121">
         <f>IF(PasteValuesHere!A121&lt;&gt;"",PasteValuesHere!A121,"")</f>
         <v>117</v>
@@ -15132,7 +15132,7 @@
         <v/>
       </c>
     </row>
-    <row r="122" spans="1:23">
+    <row r="122" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A122">
         <f>IF(PasteValuesHere!A122&lt;&gt;"",PasteValuesHere!A122,"")</f>
         <v>118</v>
@@ -15222,7 +15222,7 @@
         <v/>
       </c>
     </row>
-    <row r="123" spans="1:23">
+    <row r="123" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A123">
         <f>IF(PasteValuesHere!A123&lt;&gt;"",PasteValuesHere!A123,"")</f>
         <v>119</v>
@@ -15312,7 +15312,7 @@
         <v/>
       </c>
     </row>
-    <row r="124" spans="1:23">
+    <row r="124" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A124">
         <f>IF(PasteValuesHere!A124&lt;&gt;"",PasteValuesHere!A124,"")</f>
         <v>120</v>
@@ -15402,7 +15402,7 @@
         <v/>
       </c>
     </row>
-    <row r="125" spans="1:23">
+    <row r="125" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A125">
         <f>IF(PasteValuesHere!A125&lt;&gt;"",PasteValuesHere!A125,"")</f>
         <v>121</v>
@@ -15492,7 +15492,7 @@
         <v/>
       </c>
     </row>
-    <row r="126" spans="1:23">
+    <row r="126" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A126">
         <f>IF(PasteValuesHere!A126&lt;&gt;"",PasteValuesHere!A126,"")</f>
         <v>122</v>
@@ -15582,7 +15582,7 @@
         <v/>
       </c>
     </row>
-    <row r="127" spans="1:23">
+    <row r="127" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A127">
         <f>IF(PasteValuesHere!A127&lt;&gt;"",PasteValuesHere!A127,"")</f>
         <v>123</v>
@@ -15672,7 +15672,7 @@
         <v/>
       </c>
     </row>
-    <row r="128" spans="1:23">
+    <row r="128" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A128">
         <f>IF(PasteValuesHere!A128&lt;&gt;"",PasteValuesHere!A128,"")</f>
         <v>124</v>
@@ -15762,7 +15762,7 @@
         <v/>
       </c>
     </row>
-    <row r="129" spans="1:23">
+    <row r="129" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A129">
         <f>IF(PasteValuesHere!A129&lt;&gt;"",PasteValuesHere!A129,"")</f>
         <v>125</v>
@@ -15852,7 +15852,7 @@
         <v/>
       </c>
     </row>
-    <row r="130" spans="1:23">
+    <row r="130" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A130">
         <f>IF(PasteValuesHere!A130&lt;&gt;"",PasteValuesHere!A130,"")</f>
         <v>126</v>
@@ -15942,7 +15942,7 @@
         <v/>
       </c>
     </row>
-    <row r="131" spans="1:23">
+    <row r="131" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A131">
         <f>IF(PasteValuesHere!A131&lt;&gt;"",PasteValuesHere!A131,"")</f>
         <v>127</v>
@@ -16032,7 +16032,7 @@
         <v/>
       </c>
     </row>
-    <row r="132" spans="1:23">
+    <row r="132" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A132">
         <f>IF(PasteValuesHere!A132&lt;&gt;"",PasteValuesHere!A132,"")</f>
         <v>128</v>
@@ -16122,7 +16122,7 @@
         <v/>
       </c>
     </row>
-    <row r="133" spans="1:23">
+    <row r="133" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A133">
         <f>IF(PasteValuesHere!A133&lt;&gt;"",PasteValuesHere!A133,"")</f>
         <v>129</v>
@@ -16212,7 +16212,7 @@
         <v/>
       </c>
     </row>
-    <row r="134" spans="1:23">
+    <row r="134" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A134">
         <f>IF(PasteValuesHere!A134&lt;&gt;"",PasteValuesHere!A134,"")</f>
         <v>130</v>
@@ -16302,7 +16302,7 @@
         <v/>
       </c>
     </row>
-    <row r="135" spans="1:23">
+    <row r="135" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A135">
         <f>IF(PasteValuesHere!A135&lt;&gt;"",PasteValuesHere!A135,"")</f>
         <v>131</v>
@@ -16392,7 +16392,7 @@
         <v/>
       </c>
     </row>
-    <row r="136" spans="1:23">
+    <row r="136" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A136">
         <f>IF(PasteValuesHere!A136&lt;&gt;"",PasteValuesHere!A136,"")</f>
         <v>132</v>
@@ -16482,7 +16482,7 @@
         <v/>
       </c>
     </row>
-    <row r="137" spans="1:23">
+    <row r="137" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A137">
         <f>IF(PasteValuesHere!A137&lt;&gt;"",PasteValuesHere!A137,"")</f>
         <v>133</v>
@@ -16572,7 +16572,7 @@
         <v/>
       </c>
     </row>
-    <row r="138" spans="1:23">
+    <row r="138" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A138">
         <f>IF(PasteValuesHere!A138&lt;&gt;"",PasteValuesHere!A138,"")</f>
         <v>134</v>
@@ -16662,7 +16662,7 @@
         <v/>
       </c>
     </row>
-    <row r="139" spans="1:23">
+    <row r="139" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A139">
         <f>IF(PasteValuesHere!A139&lt;&gt;"",PasteValuesHere!A139,"")</f>
         <v>135</v>
@@ -16752,7 +16752,7 @@
         <v/>
       </c>
     </row>
-    <row r="140" spans="1:23">
+    <row r="140" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A140">
         <f>IF(PasteValuesHere!A140&lt;&gt;"",PasteValuesHere!A140,"")</f>
         <v>136</v>
@@ -16842,7 +16842,7 @@
         <v/>
       </c>
     </row>
-    <row r="141" spans="1:23">
+    <row r="141" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A141">
         <f>IF(PasteValuesHere!A141&lt;&gt;"",PasteValuesHere!A141,"")</f>
         <v>137</v>
@@ -16932,7 +16932,7 @@
         <v/>
       </c>
     </row>
-    <row r="142" spans="1:23">
+    <row r="142" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A142">
         <f>IF(PasteValuesHere!A142&lt;&gt;"",PasteValuesHere!A142,"")</f>
         <v>138</v>
@@ -17022,7 +17022,7 @@
         <v/>
       </c>
     </row>
-    <row r="143" spans="1:23">
+    <row r="143" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A143">
         <f>IF(PasteValuesHere!A143&lt;&gt;"",PasteValuesHere!A143,"")</f>
         <v>139</v>
@@ -17112,7 +17112,7 @@
         <v/>
       </c>
     </row>
-    <row r="144" spans="1:23">
+    <row r="144" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A144">
         <f>IF(PasteValuesHere!A144&lt;&gt;"",PasteValuesHere!A144,"")</f>
         <v>140</v>
@@ -17202,7 +17202,7 @@
         <v/>
       </c>
     </row>
-    <row r="145" spans="1:23">
+    <row r="145" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A145">
         <f>IF(PasteValuesHere!A145&lt;&gt;"",PasteValuesHere!A145,"")</f>
         <v>141</v>
@@ -17292,7 +17292,7 @@
         <v/>
       </c>
     </row>
-    <row r="146" spans="1:23">
+    <row r="146" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A146">
         <f>IF(PasteValuesHere!A146&lt;&gt;"",PasteValuesHere!A146,"")</f>
         <v>142</v>
@@ -17382,7 +17382,7 @@
         <v/>
       </c>
     </row>
-    <row r="147" spans="1:23">
+    <row r="147" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A147">
         <f>IF(PasteValuesHere!A147&lt;&gt;"",PasteValuesHere!A147,"")</f>
         <v>143</v>
@@ -17472,7 +17472,7 @@
         <v/>
       </c>
     </row>
-    <row r="148" spans="1:23">
+    <row r="148" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A148">
         <f>IF(PasteValuesHere!A148&lt;&gt;"",PasteValuesHere!A148,"")</f>
         <v>144</v>
@@ -17562,7 +17562,7 @@
         <v/>
       </c>
     </row>
-    <row r="149" spans="1:23">
+    <row r="149" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A149">
         <f>IF(PasteValuesHere!A149&lt;&gt;"",PasteValuesHere!A149,"")</f>
         <v>145</v>
@@ -17652,7 +17652,7 @@
         <v/>
       </c>
     </row>
-    <row r="150" spans="1:23">
+    <row r="150" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A150">
         <f>IF(PasteValuesHere!A150&lt;&gt;"",PasteValuesHere!A150,"")</f>
         <v>146</v>
@@ -17742,7 +17742,7 @@
         <v/>
       </c>
     </row>
-    <row r="151" spans="1:23">
+    <row r="151" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A151">
         <f>IF(PasteValuesHere!A151&lt;&gt;"",PasteValuesHere!A151,"")</f>
         <v>147</v>
@@ -17832,7 +17832,7 @@
         <v/>
       </c>
     </row>
-    <row r="152" spans="1:23">
+    <row r="152" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A152">
         <f>IF(PasteValuesHere!A152&lt;&gt;"",PasteValuesHere!A152,"")</f>
         <v>148</v>
@@ -17922,7 +17922,7 @@
         <v/>
       </c>
     </row>
-    <row r="153" spans="1:23">
+    <row r="153" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A153">
         <f>IF(PasteValuesHere!A153&lt;&gt;"",PasteValuesHere!A153,"")</f>
         <v>149</v>
@@ -18012,7 +18012,7 @@
         <v/>
       </c>
     </row>
-    <row r="154" spans="1:23">
+    <row r="154" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A154">
         <f>IF(PasteValuesHere!A154&lt;&gt;"",PasteValuesHere!A154,"")</f>
         <v>150</v>
@@ -18102,7 +18102,7 @@
         <v/>
       </c>
     </row>
-    <row r="155" spans="1:23">
+    <row r="155" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A155">
         <f>IF(PasteValuesHere!A155&lt;&gt;"",PasteValuesHere!A155,"")</f>
         <v>151</v>
@@ -18192,7 +18192,7 @@
         <v/>
       </c>
     </row>
-    <row r="156" spans="1:23">
+    <row r="156" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A156">
         <f>IF(PasteValuesHere!A156&lt;&gt;"",PasteValuesHere!A156,"")</f>
         <v>152</v>
@@ -18282,7 +18282,7 @@
         <v/>
       </c>
     </row>
-    <row r="157" spans="1:23">
+    <row r="157" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A157">
         <f>IF(PasteValuesHere!A157&lt;&gt;"",PasteValuesHere!A157,"")</f>
         <v>153</v>
@@ -18372,7 +18372,7 @@
         <v/>
       </c>
     </row>
-    <row r="158" spans="1:23">
+    <row r="158" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A158">
         <f>IF(PasteValuesHere!A158&lt;&gt;"",PasteValuesHere!A158,"")</f>
         <v>154</v>
@@ -18462,7 +18462,7 @@
         <v/>
       </c>
     </row>
-    <row r="159" spans="1:23">
+    <row r="159" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A159">
         <f>IF(PasteValuesHere!A159&lt;&gt;"",PasteValuesHere!A159,"")</f>
         <v>155</v>
@@ -18552,7 +18552,7 @@
         <v/>
       </c>
     </row>
-    <row r="160" spans="1:23">
+    <row r="160" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A160">
         <f>IF(PasteValuesHere!A160&lt;&gt;"",PasteValuesHere!A160,"")</f>
         <v>156</v>
@@ -18642,7 +18642,7 @@
         <v/>
       </c>
     </row>
-    <row r="161" spans="1:23">
+    <row r="161" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A161">
         <f>IF(PasteValuesHere!A161&lt;&gt;"",PasteValuesHere!A161,"")</f>
         <v>157</v>
@@ -18732,7 +18732,7 @@
         <v/>
       </c>
     </row>
-    <row r="162" spans="1:23">
+    <row r="162" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A162">
         <f>IF(PasteValuesHere!A162&lt;&gt;"",PasteValuesHere!A162,"")</f>
         <v>158</v>
@@ -18822,7 +18822,7 @@
         <v/>
       </c>
     </row>
-    <row r="163" spans="1:23">
+    <row r="163" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A163">
         <f>IF(PasteValuesHere!A163&lt;&gt;"",PasteValuesHere!A163,"")</f>
         <v>159</v>
@@ -18912,7 +18912,7 @@
         <v/>
       </c>
     </row>
-    <row r="164" spans="1:23">
+    <row r="164" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A164">
         <f>IF(PasteValuesHere!A164&lt;&gt;"",PasteValuesHere!A164,"")</f>
         <v>160</v>
@@ -19002,7 +19002,7 @@
         <v/>
       </c>
     </row>
-    <row r="165" spans="1:23">
+    <row r="165" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A165">
         <f>IF(PasteValuesHere!A165&lt;&gt;"",PasteValuesHere!A165,"")</f>
         <v>161</v>
@@ -19092,7 +19092,7 @@
         <v/>
       </c>
     </row>
-    <row r="166" spans="1:23">
+    <row r="166" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A166">
         <f>IF(PasteValuesHere!A166&lt;&gt;"",PasteValuesHere!A166,"")</f>
         <v>162</v>
@@ -19182,7 +19182,7 @@
         <v/>
       </c>
     </row>
-    <row r="167" spans="1:23">
+    <row r="167" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A167">
         <f>IF(PasteValuesHere!A167&lt;&gt;"",PasteValuesHere!A167,"")</f>
         <v>163</v>
@@ -19272,7 +19272,7 @@
         <v/>
       </c>
     </row>
-    <row r="168" spans="1:23">
+    <row r="168" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A168">
         <f>IF(PasteValuesHere!A168&lt;&gt;"",PasteValuesHere!A168,"")</f>
         <v>164</v>
@@ -19362,7 +19362,7 @@
         <v/>
       </c>
     </row>
-    <row r="169" spans="1:23">
+    <row r="169" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A169">
         <f>IF(PasteValuesHere!A169&lt;&gt;"",PasteValuesHere!A169,"")</f>
         <v>165</v>
@@ -19452,7 +19452,7 @@
         <v/>
       </c>
     </row>
-    <row r="170" spans="1:23">
+    <row r="170" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A170">
         <f>IF(PasteValuesHere!A170&lt;&gt;"",PasteValuesHere!A170,"")</f>
         <v>166</v>
@@ -19542,7 +19542,7 @@
         <v/>
       </c>
     </row>
-    <row r="171" spans="1:23">
+    <row r="171" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A171">
         <f>IF(PasteValuesHere!A171&lt;&gt;"",PasteValuesHere!A171,"")</f>
         <v>167</v>
@@ -19632,7 +19632,7 @@
         <v/>
       </c>
     </row>
-    <row r="172" spans="1:23">
+    <row r="172" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A172">
         <f>IF(PasteValuesHere!A172&lt;&gt;"",PasteValuesHere!A172,"")</f>
         <v>168</v>
@@ -19722,7 +19722,7 @@
         <v/>
       </c>
     </row>
-    <row r="173" spans="1:23">
+    <row r="173" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A173">
         <f>IF(PasteValuesHere!A173&lt;&gt;"",PasteValuesHere!A173,"")</f>
         <v>169</v>
@@ -19812,7 +19812,7 @@
         <v/>
       </c>
     </row>
-    <row r="174" spans="1:23">
+    <row r="174" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A174">
         <f>IF(PasteValuesHere!A174&lt;&gt;"",PasteValuesHere!A174,"")</f>
         <v>170</v>
@@ -19902,7 +19902,7 @@
         <v/>
       </c>
     </row>
-    <row r="175" spans="1:23">
+    <row r="175" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A175">
         <f>IF(PasteValuesHere!A175&lt;&gt;"",PasteValuesHere!A175,"")</f>
         <v>171</v>
@@ -19992,7 +19992,7 @@
         <v/>
       </c>
     </row>
-    <row r="176" spans="1:23">
+    <row r="176" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A176">
         <f>IF(PasteValuesHere!A176&lt;&gt;"",PasteValuesHere!A176,"")</f>
         <v>172</v>
@@ -20082,7 +20082,7 @@
         <v/>
       </c>
     </row>
-    <row r="177" spans="1:23">
+    <row r="177" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A177">
         <f>IF(PasteValuesHere!A177&lt;&gt;"",PasteValuesHere!A177,"")</f>
         <v>173</v>
@@ -20172,7 +20172,7 @@
         <v/>
       </c>
     </row>
-    <row r="178" spans="1:23">
+    <row r="178" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A178">
         <f>IF(PasteValuesHere!A178&lt;&gt;"",PasteValuesHere!A178,"")</f>
         <v>174</v>
@@ -20262,7 +20262,7 @@
         <v/>
       </c>
     </row>
-    <row r="179" spans="1:23">
+    <row r="179" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A179">
         <f>IF(PasteValuesHere!A179&lt;&gt;"",PasteValuesHere!A179,"")</f>
         <v>175</v>
@@ -20352,7 +20352,7 @@
         <v/>
       </c>
     </row>
-    <row r="180" spans="1:23">
+    <row r="180" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A180">
         <f>IF(PasteValuesHere!A180&lt;&gt;"",PasteValuesHere!A180,"")</f>
         <v>176</v>
@@ -20442,7 +20442,7 @@
         <v/>
       </c>
     </row>
-    <row r="181" spans="1:23">
+    <row r="181" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A181">
         <f>IF(PasteValuesHere!A181&lt;&gt;"",PasteValuesHere!A181,"")</f>
         <v>177</v>
@@ -20532,7 +20532,7 @@
         <v/>
       </c>
     </row>
-    <row r="182" spans="1:23">
+    <row r="182" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A182">
         <f>IF(PasteValuesHere!A182&lt;&gt;"",PasteValuesHere!A182,"")</f>
         <v>178</v>
@@ -20622,7 +20622,7 @@
         <v/>
       </c>
     </row>
-    <row r="183" spans="1:23">
+    <row r="183" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A183">
         <f>IF(PasteValuesHere!A183&lt;&gt;"",PasteValuesHere!A183,"")</f>
         <v>179</v>
@@ -20712,7 +20712,7 @@
         <v/>
       </c>
     </row>
-    <row r="184" spans="1:23">
+    <row r="184" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A184">
         <f>IF(PasteValuesHere!A184&lt;&gt;"",PasteValuesHere!A184,"")</f>
         <v>180</v>
@@ -20802,7 +20802,7 @@
         <v/>
       </c>
     </row>
-    <row r="185" spans="1:23">
+    <row r="185" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A185">
         <f>IF(PasteValuesHere!A185&lt;&gt;"",PasteValuesHere!A185,"")</f>
         <v>181</v>
@@ -20892,7 +20892,7 @@
         <v/>
       </c>
     </row>
-    <row r="186" spans="1:23">
+    <row r="186" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A186">
         <f>IF(PasteValuesHere!A186&lt;&gt;"",PasteValuesHere!A186,"")</f>
         <v>182</v>
@@ -20982,7 +20982,7 @@
         <v/>
       </c>
     </row>
-    <row r="187" spans="1:23">
+    <row r="187" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A187">
         <f>IF(PasteValuesHere!A187&lt;&gt;"",PasteValuesHere!A187,"")</f>
         <v>183</v>
@@ -21072,7 +21072,7 @@
         <v/>
       </c>
     </row>
-    <row r="188" spans="1:23">
+    <row r="188" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A188">
         <f>IF(PasteValuesHere!A188&lt;&gt;"",PasteValuesHere!A188,"")</f>
         <v>184</v>
@@ -21162,7 +21162,7 @@
         <v/>
       </c>
     </row>
-    <row r="189" spans="1:23">
+    <row r="189" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A189">
         <f>IF(PasteValuesHere!A189&lt;&gt;"",PasteValuesHere!A189,"")</f>
         <v>185</v>
@@ -21252,7 +21252,7 @@
         <v/>
       </c>
     </row>
-    <row r="190" spans="1:23">
+    <row r="190" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A190">
         <f>IF(PasteValuesHere!A190&lt;&gt;"",PasteValuesHere!A190,"")</f>
         <v>186</v>
@@ -21342,7 +21342,7 @@
         <v/>
       </c>
     </row>
-    <row r="191" spans="1:23">
+    <row r="191" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A191">
         <f>IF(PasteValuesHere!A191&lt;&gt;"",PasteValuesHere!A191,"")</f>
         <v>187</v>
@@ -21432,7 +21432,7 @@
         <v/>
       </c>
     </row>
-    <row r="192" spans="1:23">
+    <row r="192" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A192">
         <f>IF(PasteValuesHere!A192&lt;&gt;"",PasteValuesHere!A192,"")</f>
         <v>188</v>
@@ -21522,7 +21522,7 @@
         <v/>
       </c>
     </row>
-    <row r="193" spans="1:23">
+    <row r="193" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A193">
         <f>IF(PasteValuesHere!A193&lt;&gt;"",PasteValuesHere!A193,"")</f>
         <v>189</v>
@@ -21612,7 +21612,7 @@
         <v/>
       </c>
     </row>
-    <row r="194" spans="1:23">
+    <row r="194" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A194">
         <f>IF(PasteValuesHere!A194&lt;&gt;"",PasteValuesHere!A194,"")</f>
         <v>190</v>
@@ -21702,7 +21702,7 @@
         <v/>
       </c>
     </row>
-    <row r="195" spans="1:23">
+    <row r="195" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A195">
         <f>IF(PasteValuesHere!A195&lt;&gt;"",PasteValuesHere!A195,"")</f>
         <v>191</v>
@@ -21792,7 +21792,7 @@
         <v/>
       </c>
     </row>
-    <row r="196" spans="1:23">
+    <row r="196" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A196">
         <f>IF(PasteValuesHere!A196&lt;&gt;"",PasteValuesHere!A196,"")</f>
         <v>192</v>
@@ -21882,7 +21882,7 @@
         <v/>
       </c>
     </row>
-    <row r="197" spans="1:23">
+    <row r="197" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A197">
         <f>IF(PasteValuesHere!A197&lt;&gt;"",PasteValuesHere!A197,"")</f>
         <v>193</v>
@@ -21972,7 +21972,7 @@
         <v/>
       </c>
     </row>
-    <row r="198" spans="1:23">
+    <row r="198" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A198">
         <f>IF(PasteValuesHere!A198&lt;&gt;"",PasteValuesHere!A198,"")</f>
         <v>194</v>
@@ -22062,7 +22062,7 @@
         <v/>
       </c>
     </row>
-    <row r="199" spans="1:23">
+    <row r="199" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A199">
         <f>IF(PasteValuesHere!A199&lt;&gt;"",PasteValuesHere!A199,"")</f>
         <v>195</v>
@@ -22152,7 +22152,7 @@
         <v/>
       </c>
     </row>
-    <row r="200" spans="1:23">
+    <row r="200" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A200">
         <f>IF(PasteValuesHere!A200&lt;&gt;"",PasteValuesHere!A200,"")</f>
         <v>196</v>
@@ -22242,7 +22242,7 @@
         <v/>
       </c>
     </row>
-    <row r="201" spans="1:23">
+    <row r="201" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A201">
         <f>IF(PasteValuesHere!A201&lt;&gt;"",PasteValuesHere!A201,"")</f>
         <v>197</v>
@@ -22332,7 +22332,7 @@
         <v/>
       </c>
     </row>
-    <row r="202" spans="1:23">
+    <row r="202" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A202">
         <f>IF(PasteValuesHere!A202&lt;&gt;"",PasteValuesHere!A202,"")</f>
         <v>198</v>
@@ -22422,7 +22422,7 @@
         <v/>
       </c>
     </row>
-    <row r="203" spans="1:23">
+    <row r="203" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A203">
         <f>IF(PasteValuesHere!A203&lt;&gt;"",PasteValuesHere!A203,"")</f>
         <v>199</v>
@@ -22512,7 +22512,7 @@
         <v/>
       </c>
     </row>
-    <row r="204" spans="1:23">
+    <row r="204" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A204">
         <f>IF(PasteValuesHere!A204&lt;&gt;"",PasteValuesHere!A204,"")</f>
         <v>200</v>
@@ -22602,7 +22602,7 @@
         <v/>
       </c>
     </row>
-    <row r="205" spans="1:23">
+    <row r="205" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A205">
         <f>IF(PasteValuesHere!A205&lt;&gt;"",PasteValuesHere!A205,"")</f>
         <v>201</v>
@@ -22692,7 +22692,7 @@
         <v/>
       </c>
     </row>
-    <row r="206" spans="1:23">
+    <row r="206" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A206">
         <f>IF(PasteValuesHere!A206&lt;&gt;"",PasteValuesHere!A206,"")</f>
         <v>202</v>
@@ -22782,7 +22782,7 @@
         <v/>
       </c>
     </row>
-    <row r="207" spans="1:23">
+    <row r="207" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A207">
         <f>IF(PasteValuesHere!A207&lt;&gt;"",PasteValuesHere!A207,"")</f>
         <v>203</v>
@@ -22872,7 +22872,7 @@
         <v/>
       </c>
     </row>
-    <row r="208" spans="1:23">
+    <row r="208" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A208">
         <f>IF(PasteValuesHere!A208&lt;&gt;"",PasteValuesHere!A208,"")</f>
         <v>204</v>
@@ -22962,7 +22962,7 @@
         <v/>
       </c>
     </row>
-    <row r="209" spans="1:23">
+    <row r="209" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A209">
         <f>IF(PasteValuesHere!A209&lt;&gt;"",PasteValuesHere!A209,"")</f>
         <v>205</v>
@@ -23052,7 +23052,7 @@
         <v/>
       </c>
     </row>
-    <row r="210" spans="1:23">
+    <row r="210" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A210">
         <f>IF(PasteValuesHere!A210&lt;&gt;"",PasteValuesHere!A210,"")</f>
         <v>206</v>
@@ -23142,7 +23142,7 @@
         <v/>
       </c>
     </row>
-    <row r="211" spans="1:23">
+    <row r="211" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A211">
         <f>IF(PasteValuesHere!A211&lt;&gt;"",PasteValuesHere!A211,"")</f>
         <v>207</v>
@@ -23232,7 +23232,7 @@
         <v/>
       </c>
     </row>
-    <row r="212" spans="1:23">
+    <row r="212" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A212">
         <f>IF(PasteValuesHere!A212&lt;&gt;"",PasteValuesHere!A212,"")</f>
         <v>208</v>
@@ -23322,7 +23322,7 @@
         <v/>
       </c>
     </row>
-    <row r="213" spans="1:23">
+    <row r="213" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A213">
         <f>IF(PasteValuesHere!A213&lt;&gt;"",PasteValuesHere!A213,"")</f>
         <v>209</v>
@@ -23412,7 +23412,7 @@
         <v/>
       </c>
     </row>
-    <row r="214" spans="1:23">
+    <row r="214" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A214">
         <f>IF(PasteValuesHere!A214&lt;&gt;"",PasteValuesHere!A214,"")</f>
         <v>210</v>
@@ -23502,7 +23502,7 @@
         <v/>
       </c>
     </row>
-    <row r="215" spans="1:23">
+    <row r="215" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A215">
         <f>IF(PasteValuesHere!A215&lt;&gt;"",PasteValuesHere!A215,"")</f>
         <v>211</v>
@@ -23592,7 +23592,7 @@
         <v/>
       </c>
     </row>
-    <row r="216" spans="1:23">
+    <row r="216" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A216">
         <f>IF(PasteValuesHere!A216&lt;&gt;"",PasteValuesHere!A216,"")</f>
         <v>212</v>
@@ -23682,7 +23682,7 @@
         <v/>
       </c>
     </row>
-    <row r="217" spans="1:23">
+    <row r="217" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A217">
         <f>IF(PasteValuesHere!A217&lt;&gt;"",PasteValuesHere!A217,"")</f>
         <v>213</v>
@@ -23772,7 +23772,7 @@
         <v/>
       </c>
     </row>
-    <row r="218" spans="1:23">
+    <row r="218" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A218">
         <f>IF(PasteValuesHere!A218&lt;&gt;"",PasteValuesHere!A218,"")</f>
         <v>214</v>
@@ -23862,7 +23862,7 @@
         <v/>
       </c>
     </row>
-    <row r="219" spans="1:23">
+    <row r="219" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A219">
         <f>IF(PasteValuesHere!A219&lt;&gt;"",PasteValuesHere!A219,"")</f>
         <v>215</v>
@@ -23952,7 +23952,7 @@
         <v/>
       </c>
     </row>
-    <row r="220" spans="1:23">
+    <row r="220" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A220">
         <f>IF(PasteValuesHere!A220&lt;&gt;"",PasteValuesHere!A220,"")</f>
         <v>216</v>
@@ -24042,7 +24042,7 @@
         <v/>
       </c>
     </row>
-    <row r="221" spans="1:23">
+    <row r="221" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A221">
         <f>IF(PasteValuesHere!A221&lt;&gt;"",PasteValuesHere!A221,"")</f>
         <v>217</v>
@@ -24132,7 +24132,7 @@
         <v/>
       </c>
     </row>
-    <row r="222" spans="1:23">
+    <row r="222" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A222">
         <f>IF(PasteValuesHere!A222&lt;&gt;"",PasteValuesHere!A222,"")</f>
         <v>218</v>
@@ -24222,7 +24222,7 @@
         <v/>
       </c>
     </row>
-    <row r="223" spans="1:23">
+    <row r="223" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A223">
         <f>IF(PasteValuesHere!A223&lt;&gt;"",PasteValuesHere!A223,"")</f>
         <v>219</v>
@@ -24312,7 +24312,7 @@
         <v/>
       </c>
     </row>
-    <row r="224" spans="1:23">
+    <row r="224" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A224">
         <f>IF(PasteValuesHere!A224&lt;&gt;"",PasteValuesHere!A224,"")</f>
         <v>220</v>
@@ -24402,7 +24402,7 @@
         <v/>
       </c>
     </row>
-    <row r="225" spans="1:23">
+    <row r="225" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A225">
         <f>IF(PasteValuesHere!A225&lt;&gt;"",PasteValuesHere!A225,"")</f>
         <v>221</v>
@@ -24492,7 +24492,7 @@
         <v/>
       </c>
     </row>
-    <row r="226" spans="1:23">
+    <row r="226" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A226">
         <f>IF(PasteValuesHere!A226&lt;&gt;"",PasteValuesHere!A226,"")</f>
         <v>222</v>
@@ -24582,7 +24582,7 @@
         <v/>
       </c>
     </row>
-    <row r="227" spans="1:23">
+    <row r="227" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A227">
         <f>IF(PasteValuesHere!A227&lt;&gt;"",PasteValuesHere!A227,"")</f>
         <v>223</v>
@@ -24672,7 +24672,7 @@
         <v/>
       </c>
     </row>
-    <row r="228" spans="1:23">
+    <row r="228" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A228">
         <f>IF(PasteValuesHere!A228&lt;&gt;"",PasteValuesHere!A228,"")</f>
         <v>224</v>
@@ -24762,7 +24762,7 @@
         <v/>
       </c>
     </row>
-    <row r="229" spans="1:23">
+    <row r="229" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A229">
         <f>IF(PasteValuesHere!A229&lt;&gt;"",PasteValuesHere!A229,"")</f>
         <v>225</v>
@@ -24852,7 +24852,7 @@
         <v/>
       </c>
     </row>
-    <row r="230" spans="1:23">
+    <row r="230" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A230">
         <f>IF(PasteValuesHere!A230&lt;&gt;"",PasteValuesHere!A230,"")</f>
         <v>226</v>
@@ -24942,7 +24942,7 @@
         <v/>
       </c>
     </row>
-    <row r="231" spans="1:23">
+    <row r="231" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A231">
         <f>IF(PasteValuesHere!A231&lt;&gt;"",PasteValuesHere!A231,"")</f>
         <v>227</v>
@@ -25032,7 +25032,7 @@
         <v/>
       </c>
     </row>
-    <row r="232" spans="1:23">
+    <row r="232" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A232">
         <f>IF(PasteValuesHere!A232&lt;&gt;"",PasteValuesHere!A232,"")</f>
         <v>228</v>
@@ -25122,7 +25122,7 @@
         <v/>
       </c>
     </row>
-    <row r="233" spans="1:23">
+    <row r="233" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A233">
         <f>IF(PasteValuesHere!A233&lt;&gt;"",PasteValuesHere!A233,"")</f>
         <v>229</v>
@@ -25212,7 +25212,7 @@
         <v/>
       </c>
     </row>
-    <row r="234" spans="1:23">
+    <row r="234" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A234">
         <f>IF(PasteValuesHere!A234&lt;&gt;"",PasteValuesHere!A234,"")</f>
         <v>230</v>
@@ -25302,7 +25302,7 @@
         <v/>
       </c>
     </row>
-    <row r="235" spans="1:23">
+    <row r="235" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A235">
         <f>IF(PasteValuesHere!A235&lt;&gt;"",PasteValuesHere!A235,"")</f>
         <v>231</v>
@@ -25392,7 +25392,7 @@
         <v/>
       </c>
     </row>
-    <row r="236" spans="1:23">
+    <row r="236" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A236">
         <f>IF(PasteValuesHere!A236&lt;&gt;"",PasteValuesHere!A236,"")</f>
         <v>232</v>
@@ -25482,7 +25482,7 @@
         <v/>
       </c>
     </row>
-    <row r="237" spans="1:23">
+    <row r="237" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A237">
         <f>IF(PasteValuesHere!A237&lt;&gt;"",PasteValuesHere!A237,"")</f>
         <v>233</v>
@@ -25572,7 +25572,7 @@
         <v/>
       </c>
     </row>
-    <row r="238" spans="1:23">
+    <row r="238" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A238">
         <f>IF(PasteValuesHere!A238&lt;&gt;"",PasteValuesHere!A238,"")</f>
         <v>234</v>
@@ -25662,7 +25662,7 @@
         <v/>
       </c>
     </row>
-    <row r="239" spans="1:23">
+    <row r="239" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A239">
         <f>IF(PasteValuesHere!A239&lt;&gt;"",PasteValuesHere!A239,"")</f>
         <v>235</v>
@@ -25752,7 +25752,7 @@
         <v/>
       </c>
     </row>
-    <row r="240" spans="1:23">
+    <row r="240" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A240">
         <f>IF(PasteValuesHere!A240&lt;&gt;"",PasteValuesHere!A240,"")</f>
         <v>236</v>
@@ -25842,7 +25842,7 @@
         <v/>
       </c>
     </row>
-    <row r="241" spans="1:23">
+    <row r="241" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A241">
         <f>IF(PasteValuesHere!A241&lt;&gt;"",PasteValuesHere!A241,"")</f>
         <v>237</v>
@@ -25932,7 +25932,7 @@
         <v/>
       </c>
     </row>
-    <row r="242" spans="1:23">
+    <row r="242" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A242">
         <f>IF(PasteValuesHere!A242&lt;&gt;"",PasteValuesHere!A242,"")</f>
         <v>238</v>
@@ -26022,7 +26022,7 @@
         <v/>
       </c>
     </row>
-    <row r="243" spans="1:23">
+    <row r="243" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A243">
         <f>IF(PasteValuesHere!A243&lt;&gt;"",PasteValuesHere!A243,"")</f>
         <v>239</v>
@@ -26112,7 +26112,7 @@
         <v/>
       </c>
     </row>
-    <row r="244" spans="1:23">
+    <row r="244" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A244">
         <f>IF(PasteValuesHere!A244&lt;&gt;"",PasteValuesHere!A244,"")</f>
         <v>240</v>
@@ -26202,7 +26202,7 @@
         <v/>
       </c>
     </row>
-    <row r="245" spans="1:23">
+    <row r="245" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A245">
         <f>IF(PasteValuesHere!A245&lt;&gt;"",PasteValuesHere!A245,"")</f>
         <v>241</v>
@@ -26292,7 +26292,7 @@
         <v/>
       </c>
     </row>
-    <row r="246" spans="1:23">
+    <row r="246" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A246">
         <f>IF(PasteValuesHere!A246&lt;&gt;"",PasteValuesHere!A246,"")</f>
         <v>242</v>
@@ -26382,7 +26382,7 @@
         <v/>
       </c>
     </row>
-    <row r="247" spans="1:23">
+    <row r="247" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A247">
         <f>IF(PasteValuesHere!A247&lt;&gt;"",PasteValuesHere!A247,"")</f>
         <v>243</v>
@@ -26472,7 +26472,7 @@
         <v/>
       </c>
     </row>
-    <row r="248" spans="1:23">
+    <row r="248" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A248">
         <f>IF(PasteValuesHere!A248&lt;&gt;"",PasteValuesHere!A248,"")</f>
         <v>244</v>
@@ -26562,7 +26562,7 @@
         <v/>
       </c>
     </row>
-    <row r="249" spans="1:23">
+    <row r="249" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A249">
         <f>IF(PasteValuesHere!A249&lt;&gt;"",PasteValuesHere!A249,"")</f>
         <v>245</v>
@@ -26652,7 +26652,7 @@
         <v/>
       </c>
     </row>
-    <row r="250" spans="1:23">
+    <row r="250" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A250">
         <f>IF(PasteValuesHere!A250&lt;&gt;"",PasteValuesHere!A250,"")</f>
         <v>246</v>
@@ -26742,7 +26742,7 @@
         <v/>
       </c>
     </row>
-    <row r="251" spans="1:23">
+    <row r="251" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A251">
         <f>IF(PasteValuesHere!A251&lt;&gt;"",PasteValuesHere!A251,"")</f>
         <v>247</v>
@@ -26832,7 +26832,7 @@
         <v/>
       </c>
     </row>
-    <row r="252" spans="1:23">
+    <row r="252" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A252">
         <f>IF(PasteValuesHere!A252&lt;&gt;"",PasteValuesHere!A252,"")</f>
         <v>248</v>
@@ -26922,7 +26922,7 @@
         <v/>
       </c>
     </row>
-    <row r="253" spans="1:23">
+    <row r="253" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A253">
         <f>IF(PasteValuesHere!A253&lt;&gt;"",PasteValuesHere!A253,"")</f>
         <v>249</v>
@@ -27012,7 +27012,7 @@
         <v/>
       </c>
     </row>
-    <row r="254" spans="1:23">
+    <row r="254" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A254">
         <f>IF(PasteValuesHere!A254&lt;&gt;"",PasteValuesHere!A254,"")</f>
         <v>250</v>
@@ -27102,7 +27102,7 @@
         <v/>
       </c>
     </row>
-    <row r="255" spans="1:23">
+    <row r="255" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A255">
         <f>IF(PasteValuesHere!A255&lt;&gt;"",PasteValuesHere!A255,"")</f>
         <v>251</v>
@@ -27192,7 +27192,7 @@
         <v/>
       </c>
     </row>
-    <row r="256" spans="1:23">
+    <row r="256" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A256">
         <f>IF(PasteValuesHere!A256&lt;&gt;"",PasteValuesHere!A256,"")</f>
         <v>252</v>
@@ -27282,7 +27282,7 @@
         <v/>
       </c>
     </row>
-    <row r="257" spans="1:23">
+    <row r="257" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A257">
         <f>IF(PasteValuesHere!A257&lt;&gt;"",PasteValuesHere!A257,"")</f>
         <v>253</v>
@@ -27372,7 +27372,7 @@
         <v/>
       </c>
     </row>
-    <row r="258" spans="1:23">
+    <row r="258" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A258">
         <f>IF(PasteValuesHere!A258&lt;&gt;"",PasteValuesHere!A258,"")</f>
         <v>254</v>
@@ -27462,7 +27462,7 @@
         <v/>
       </c>
     </row>
-    <row r="259" spans="1:23">
+    <row r="259" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A259">
         <f>IF(PasteValuesHere!A259&lt;&gt;"",PasteValuesHere!A259,"")</f>
         <v>255</v>
@@ -27552,7 +27552,7 @@
         <v/>
       </c>
     </row>
-    <row r="260" spans="1:23">
+    <row r="260" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A260">
         <f>IF(PasteValuesHere!A260&lt;&gt;"",PasteValuesHere!A260,"")</f>
         <v>256</v>
@@ -27642,7 +27642,7 @@
         <v/>
       </c>
     </row>
-    <row r="261" spans="1:23">
+    <row r="261" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A261">
         <f>IF(PasteValuesHere!A261&lt;&gt;"",PasteValuesHere!A261,"")</f>
         <v>257</v>
@@ -27732,7 +27732,7 @@
         <v/>
       </c>
     </row>
-    <row r="262" spans="1:23">
+    <row r="262" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A262">
         <f>IF(PasteValuesHere!A262&lt;&gt;"",PasteValuesHere!A262,"")</f>
         <v>258</v>
@@ -27822,7 +27822,7 @@
         <v/>
       </c>
     </row>
-    <row r="263" spans="1:23">
+    <row r="263" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A263">
         <f>IF(PasteValuesHere!A263&lt;&gt;"",PasteValuesHere!A263,"")</f>
         <v>259</v>
@@ -27912,7 +27912,7 @@
         <v/>
       </c>
     </row>
-    <row r="264" spans="1:23">
+    <row r="264" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A264">
         <f>IF(PasteValuesHere!A264&lt;&gt;"",PasteValuesHere!A264,"")</f>
         <v>260</v>
@@ -28002,7 +28002,7 @@
         <v/>
       </c>
     </row>
-    <row r="265" spans="1:23">
+    <row r="265" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A265">
         <f>IF(PasteValuesHere!A265&lt;&gt;"",PasteValuesHere!A265,"")</f>
         <v>261</v>
@@ -28092,7 +28092,7 @@
         <v/>
       </c>
     </row>
-    <row r="266" spans="1:23">
+    <row r="266" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A266">
         <f>IF(PasteValuesHere!A266&lt;&gt;"",PasteValuesHere!A266,"")</f>
         <v>262</v>
@@ -28182,7 +28182,7 @@
         <v/>
       </c>
     </row>
-    <row r="267" spans="1:23">
+    <row r="267" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A267">
         <f>IF(PasteValuesHere!A267&lt;&gt;"",PasteValuesHere!A267,"")</f>
         <v>263</v>
@@ -28272,7 +28272,7 @@
         <v/>
       </c>
     </row>
-    <row r="268" spans="1:23">
+    <row r="268" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A268">
         <f>IF(PasteValuesHere!A268&lt;&gt;"",PasteValuesHere!A268,"")</f>
         <v>264</v>
@@ -28362,7 +28362,7 @@
         <v/>
       </c>
     </row>
-    <row r="269" spans="1:23">
+    <row r="269" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A269">
         <f>IF(PasteValuesHere!A269&lt;&gt;"",PasteValuesHere!A269,"")</f>
         <v>265</v>
@@ -28452,7 +28452,7 @@
         <v/>
       </c>
     </row>
-    <row r="270" spans="1:23">
+    <row r="270" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A270">
         <f>IF(PasteValuesHere!A270&lt;&gt;"",PasteValuesHere!A270,"")</f>
         <v>266</v>
@@ -28542,7 +28542,7 @@
         <v/>
       </c>
     </row>
-    <row r="271" spans="1:23">
+    <row r="271" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A271">
         <f>IF(PasteValuesHere!A271&lt;&gt;"",PasteValuesHere!A271,"")</f>
         <v>267</v>
@@ -28632,7 +28632,7 @@
         <v/>
       </c>
     </row>
-    <row r="272" spans="1:23">
+    <row r="272" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A272">
         <f>IF(PasteValuesHere!A272&lt;&gt;"",PasteValuesHere!A272,"")</f>
         <v>268</v>
@@ -28722,7 +28722,7 @@
         <v/>
       </c>
     </row>
-    <row r="273" spans="1:23">
+    <row r="273" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A273">
         <f>IF(PasteValuesHere!A273&lt;&gt;"",PasteValuesHere!A273,"")</f>
         <v>269</v>
@@ -28812,7 +28812,7 @@
         <v/>
       </c>
     </row>
-    <row r="274" spans="1:23">
+    <row r="274" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A274">
         <f>IF(PasteValuesHere!A274&lt;&gt;"",PasteValuesHere!A274,"")</f>
         <v>270</v>
@@ -28902,7 +28902,7 @@
         <v/>
       </c>
     </row>
-    <row r="275" spans="1:23">
+    <row r="275" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A275">
         <f>IF(PasteValuesHere!A275&lt;&gt;"",PasteValuesHere!A275,"")</f>
         <v>271</v>
@@ -28992,7 +28992,7 @@
         <v/>
       </c>
     </row>
-    <row r="276" spans="1:23">
+    <row r="276" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A276">
         <f>IF(PasteValuesHere!A276&lt;&gt;"",PasteValuesHere!A276,"")</f>
         <v>272</v>
@@ -29082,7 +29082,7 @@
         <v/>
       </c>
     </row>
-    <row r="277" spans="1:23">
+    <row r="277" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A277">
         <f>IF(PasteValuesHere!A277&lt;&gt;"",PasteValuesHere!A277,"")</f>
         <v>273</v>
@@ -29172,7 +29172,7 @@
         <v/>
       </c>
     </row>
-    <row r="278" spans="1:23">
+    <row r="278" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A278">
         <f>IF(PasteValuesHere!A278&lt;&gt;"",PasteValuesHere!A278,"")</f>
         <v>274</v>
@@ -29262,7 +29262,7 @@
         <v/>
       </c>
     </row>
-    <row r="279" spans="1:23">
+    <row r="279" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A279">
         <f>IF(PasteValuesHere!A279&lt;&gt;"",PasteValuesHere!A279,"")</f>
         <v>275</v>
@@ -29352,7 +29352,7 @@
         <v/>
       </c>
     </row>
-    <row r="280" spans="1:23">
+    <row r="280" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A280">
         <f>IF(PasteValuesHere!A280&lt;&gt;"",PasteValuesHere!A280,"")</f>
         <v>276</v>
@@ -29442,7 +29442,7 @@
         <v/>
       </c>
     </row>
-    <row r="281" spans="1:23">
+    <row r="281" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A281">
         <f>IF(PasteValuesHere!A281&lt;&gt;"",PasteValuesHere!A281,"")</f>
         <v>277</v>
@@ -29532,7 +29532,7 @@
         <v/>
       </c>
     </row>
-    <row r="282" spans="1:23">
+    <row r="282" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A282">
         <f>IF(PasteValuesHere!A282&lt;&gt;"",PasteValuesHere!A282,"")</f>
         <v>278</v>
@@ -29622,7 +29622,7 @@
         <v/>
       </c>
     </row>
-    <row r="283" spans="1:23">
+    <row r="283" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A283">
         <f>IF(PasteValuesHere!A283&lt;&gt;"",PasteValuesHere!A283,"")</f>
         <v>279</v>
@@ -29712,7 +29712,7 @@
         <v/>
       </c>
     </row>
-    <row r="284" spans="1:23">
+    <row r="284" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A284">
         <f>IF(PasteValuesHere!A284&lt;&gt;"",PasteValuesHere!A284,"")</f>
         <v>280</v>
@@ -29802,7 +29802,7 @@
         <v/>
       </c>
     </row>
-    <row r="285" spans="1:23">
+    <row r="285" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A285">
         <f>IF(PasteValuesHere!A285&lt;&gt;"",PasteValuesHere!A285,"")</f>
         <v>281</v>
@@ -29892,7 +29892,7 @@
         <v/>
       </c>
     </row>
-    <row r="286" spans="1:23">
+    <row r="286" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A286">
         <f>IF(PasteValuesHere!A286&lt;&gt;"",PasteValuesHere!A286,"")</f>
         <v>282</v>
@@ -29982,7 +29982,7 @@
         <v/>
       </c>
     </row>
-    <row r="287" spans="1:23">
+    <row r="287" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A287">
         <f>IF(PasteValuesHere!A287&lt;&gt;"",PasteValuesHere!A287,"")</f>
         <v>283</v>
@@ -30072,7 +30072,7 @@
         <v/>
       </c>
     </row>
-    <row r="288" spans="1:23">
+    <row r="288" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A288">
         <f>IF(PasteValuesHere!A288&lt;&gt;"",PasteValuesHere!A288,"")</f>
         <v>284</v>
@@ -30162,7 +30162,7 @@
         <v/>
       </c>
     </row>
-    <row r="289" spans="1:23">
+    <row r="289" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A289">
         <f>IF(PasteValuesHere!A289&lt;&gt;"",PasteValuesHere!A289,"")</f>
         <v>285</v>
@@ -30252,7 +30252,7 @@
         <v/>
       </c>
     </row>
-    <row r="290" spans="1:23">
+    <row r="290" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A290">
         <f>IF(PasteValuesHere!A290&lt;&gt;"",PasteValuesHere!A290,"")</f>
         <v>286</v>
@@ -30342,7 +30342,7 @@
         <v/>
       </c>
     </row>
-    <row r="291" spans="1:23">
+    <row r="291" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A291">
         <f>IF(PasteValuesHere!A291&lt;&gt;"",PasteValuesHere!A291,"")</f>
         <v>287</v>
@@ -30432,7 +30432,7 @@
         <v/>
       </c>
     </row>
-    <row r="292" spans="1:23">
+    <row r="292" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A292">
         <f>IF(PasteValuesHere!A292&lt;&gt;"",PasteValuesHere!A292,"")</f>
         <v>288</v>
@@ -30522,7 +30522,7 @@
         <v/>
       </c>
     </row>
-    <row r="293" spans="1:23">
+    <row r="293" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A293">
         <f>IF(PasteValuesHere!A293&lt;&gt;"",PasteValuesHere!A293,"")</f>
         <v>289</v>
@@ -30612,7 +30612,7 @@
         <v/>
       </c>
     </row>
-    <row r="294" spans="1:23">
+    <row r="294" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A294">
         <f>IF(PasteValuesHere!A294&lt;&gt;"",PasteValuesHere!A294,"")</f>
         <v>290</v>
@@ -30702,7 +30702,7 @@
         <v/>
       </c>
     </row>
-    <row r="295" spans="1:23">
+    <row r="295" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A295">
         <f>IF(PasteValuesHere!A295&lt;&gt;"",PasteValuesHere!A295,"")</f>
         <v>291</v>
@@ -30792,7 +30792,7 @@
         <v/>
       </c>
     </row>
-    <row r="296" spans="1:23">
+    <row r="296" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A296">
         <f>IF(PasteValuesHere!A296&lt;&gt;"",PasteValuesHere!A296,"")</f>
         <v>292</v>
@@ -30882,7 +30882,7 @@
         <v/>
       </c>
     </row>
-    <row r="297" spans="1:23">
+    <row r="297" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A297">
         <f>IF(PasteValuesHere!A297&lt;&gt;"",PasteValuesHere!A297,"")</f>
         <v>293</v>
@@ -30972,7 +30972,7 @@
         <v/>
       </c>
     </row>
-    <row r="298" spans="1:23">
+    <row r="298" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A298">
         <f>IF(PasteValuesHere!A298&lt;&gt;"",PasteValuesHere!A298,"")</f>
         <v>294</v>
@@ -31062,7 +31062,7 @@
         <v/>
       </c>
     </row>
-    <row r="299" spans="1:23">
+    <row r="299" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A299">
         <f>IF(PasteValuesHere!A299&lt;&gt;"",PasteValuesHere!A299,"")</f>
         <v>295</v>
@@ -31152,7 +31152,7 @@
         <v/>
       </c>
     </row>
-    <row r="300" spans="1:23">
+    <row r="300" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A300">
         <f>IF(PasteValuesHere!A300&lt;&gt;"",PasteValuesHere!A300,"")</f>
         <v>296</v>
@@ -31242,7 +31242,7 @@
         <v/>
       </c>
     </row>
-    <row r="301" spans="1:23">
+    <row r="301" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A301">
         <f>IF(PasteValuesHere!A301&lt;&gt;"",PasteValuesHere!A301,"")</f>
         <v>297</v>
@@ -31332,7 +31332,7 @@
         <v/>
       </c>
     </row>
-    <row r="302" spans="1:23">
+    <row r="302" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A302">
         <f>IF(PasteValuesHere!A302&lt;&gt;"",PasteValuesHere!A302,"")</f>
         <v>298</v>
@@ -31422,7 +31422,7 @@
         <v/>
       </c>
     </row>
-    <row r="303" spans="1:23">
+    <row r="303" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A303">
         <f>IF(PasteValuesHere!A303&lt;&gt;"",PasteValuesHere!A303,"")</f>
         <v>299</v>
@@ -31512,7 +31512,7 @@
         <v/>
       </c>
     </row>
-    <row r="304" spans="1:23">
+    <row r="304" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A304">
         <f>IF(PasteValuesHere!A304&lt;&gt;"",PasteValuesHere!A304,"")</f>
         <v>300</v>
@@ -31602,7 +31602,7 @@
         <v/>
       </c>
     </row>
-    <row r="305" spans="1:23">
+    <row r="305" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A305">
         <f>IF(PasteValuesHere!A305&lt;&gt;"",PasteValuesHere!A305,"")</f>
         <v>301</v>
@@ -31692,7 +31692,7 @@
         <v/>
       </c>
     </row>
-    <row r="306" spans="1:23">
+    <row r="306" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A306">
         <f>IF(PasteValuesHere!A306&lt;&gt;"",PasteValuesHere!A306,"")</f>
         <v>302</v>
@@ -31782,7 +31782,7 @@
         <v/>
       </c>
     </row>
-    <row r="307" spans="1:23">
+    <row r="307" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A307">
         <f>IF(PasteValuesHere!A307&lt;&gt;"",PasteValuesHere!A307,"")</f>
         <v>303</v>
@@ -31872,7 +31872,7 @@
         <v/>
       </c>
     </row>
-    <row r="308" spans="1:23">
+    <row r="308" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A308">
         <f>IF(PasteValuesHere!A308&lt;&gt;"",PasteValuesHere!A308,"")</f>
         <v>304</v>
@@ -31962,7 +31962,7 @@
         <v/>
       </c>
     </row>
-    <row r="309" spans="1:23">
+    <row r="309" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A309">
         <f>IF(PasteValuesHere!A309&lt;&gt;"",PasteValuesHere!A309,"")</f>
         <v>305</v>
@@ -32052,7 +32052,7 @@
         <v/>
       </c>
     </row>
-    <row r="310" spans="1:23">
+    <row r="310" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A310">
         <f>IF(PasteValuesHere!A310&lt;&gt;"",PasteValuesHere!A310,"")</f>
         <v>306</v>
@@ -32142,7 +32142,7 @@
         <v/>
       </c>
     </row>
-    <row r="311" spans="1:23">
+    <row r="311" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A311">
         <f>IF(PasteValuesHere!A311&lt;&gt;"",PasteValuesHere!A311,"")</f>
         <v>307</v>
@@ -32232,7 +32232,7 @@
         <v/>
       </c>
     </row>
-    <row r="312" spans="1:23">
+    <row r="312" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A312">
         <f>IF(PasteValuesHere!A312&lt;&gt;"",PasteValuesHere!A312,"")</f>
         <v>308</v>
@@ -32322,7 +32322,7 @@
         <v/>
       </c>
     </row>
-    <row r="313" spans="1:23">
+    <row r="313" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A313">
         <f>IF(PasteValuesHere!A313&lt;&gt;"",PasteValuesHere!A313,"")</f>
         <v>309</v>
@@ -32412,7 +32412,7 @@
         <v/>
       </c>
     </row>
-    <row r="314" spans="1:23">
+    <row r="314" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A314">
         <f>IF(PasteValuesHere!A314&lt;&gt;"",PasteValuesHere!A314,"")</f>
         <v>310</v>
@@ -32502,7 +32502,7 @@
         <v/>
       </c>
     </row>
-    <row r="315" spans="1:23">
+    <row r="315" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A315">
         <f>IF(PasteValuesHere!A315&lt;&gt;"",PasteValuesHere!A315,"")</f>
         <v>311</v>
@@ -32592,7 +32592,7 @@
         <v/>
       </c>
     </row>
-    <row r="316" spans="1:23">
+    <row r="316" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A316">
         <f>IF(PasteValuesHere!A316&lt;&gt;"",PasteValuesHere!A316,"")</f>
         <v>312</v>
@@ -32682,7 +32682,7 @@
         <v/>
       </c>
     </row>
-    <row r="317" spans="1:23">
+    <row r="317" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A317">
         <f>IF(PasteValuesHere!A317&lt;&gt;"",PasteValuesHere!A317,"")</f>
         <v>313</v>
@@ -32772,7 +32772,7 @@
         <v/>
       </c>
     </row>
-    <row r="318" spans="1:23">
+    <row r="318" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A318">
         <f>IF(PasteValuesHere!A318&lt;&gt;"",PasteValuesHere!A318,"")</f>
         <v>314</v>
@@ -32862,7 +32862,7 @@
         <v/>
       </c>
     </row>
-    <row r="319" spans="1:23">
+    <row r="319" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A319">
         <f>IF(PasteValuesHere!A319&lt;&gt;"",PasteValuesHere!A319,"")</f>
         <v>315</v>
@@ -32952,7 +32952,7 @@
         <v/>
       </c>
     </row>
-    <row r="320" spans="1:23">
+    <row r="320" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A320">
         <f>IF(PasteValuesHere!A320&lt;&gt;"",PasteValuesHere!A320,"")</f>
         <v>316</v>
@@ -33042,7 +33042,7 @@
         <v/>
       </c>
     </row>
-    <row r="321" spans="1:23">
+    <row r="321" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A321">
         <f>IF(PasteValuesHere!A321&lt;&gt;"",PasteValuesHere!A321,"")</f>
         <v>317</v>
@@ -33132,7 +33132,7 @@
         <v/>
       </c>
     </row>
-    <row r="322" spans="1:23">
+    <row r="322" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A322">
         <f>IF(PasteValuesHere!A322&lt;&gt;"",PasteValuesHere!A322,"")</f>
         <v>318</v>
@@ -33222,7 +33222,7 @@
         <v/>
       </c>
     </row>
-    <row r="323" spans="1:23">
+    <row r="323" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A323">
         <f>IF(PasteValuesHere!A323&lt;&gt;"",PasteValuesHere!A323,"")</f>
         <v>319</v>
@@ -33312,7 +33312,7 @@
         <v/>
       </c>
     </row>
-    <row r="324" spans="1:23">
+    <row r="324" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A324">
         <f>IF(PasteValuesHere!A324&lt;&gt;"",PasteValuesHere!A324,"")</f>
         <v>320</v>
@@ -33402,7 +33402,7 @@
         <v/>
       </c>
     </row>
-    <row r="325" spans="1:23">
+    <row r="325" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A325">
         <f>IF(PasteValuesHere!A325&lt;&gt;"",PasteValuesHere!A325,"")</f>
         <v>321</v>
@@ -33492,7 +33492,7 @@
         <v/>
       </c>
     </row>
-    <row r="326" spans="1:23">
+    <row r="326" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A326">
         <f>IF(PasteValuesHere!A326&lt;&gt;"",PasteValuesHere!A326,"")</f>
         <v>322</v>
@@ -33582,7 +33582,7 @@
         <v/>
       </c>
     </row>
-    <row r="327" spans="1:23">
+    <row r="327" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A327">
         <f>IF(PasteValuesHere!A327&lt;&gt;"",PasteValuesHere!A327,"")</f>
         <v>323</v>
@@ -33672,7 +33672,7 @@
         <v/>
       </c>
     </row>
-    <row r="328" spans="1:23">
+    <row r="328" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A328">
         <f>IF(PasteValuesHere!A328&lt;&gt;"",PasteValuesHere!A328,"")</f>
         <v>324</v>
@@ -33762,7 +33762,7 @@
         <v/>
       </c>
     </row>
-    <row r="329" spans="1:23">
+    <row r="329" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A329">
         <f>IF(PasteValuesHere!A329&lt;&gt;"",PasteValuesHere!A329,"")</f>
         <v>325</v>
@@ -33852,7 +33852,7 @@
         <v/>
       </c>
     </row>
-    <row r="330" spans="1:23">
+    <row r="330" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A330">
         <f>IF(PasteValuesHere!A330&lt;&gt;"",PasteValuesHere!A330,"")</f>
         <v>326</v>
@@ -33942,7 +33942,7 @@
         <v/>
       </c>
     </row>
-    <row r="331" spans="1:23">
+    <row r="331" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A331">
         <f>IF(PasteValuesHere!A331&lt;&gt;"",PasteValuesHere!A331,"")</f>
         <v>327</v>
@@ -34032,7 +34032,7 @@
         <v/>
       </c>
     </row>
-    <row r="332" spans="1:23">
+    <row r="332" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A332">
         <f>IF(PasteValuesHere!A332&lt;&gt;"",PasteValuesHere!A332,"")</f>
         <v>328</v>
@@ -34122,7 +34122,7 @@
         <v/>
       </c>
     </row>
-    <row r="333" spans="1:23">
+    <row r="333" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A333">
         <f>IF(PasteValuesHere!A333&lt;&gt;"",PasteValuesHere!A333,"")</f>
         <v>329</v>
@@ -34212,7 +34212,7 @@
         <v/>
       </c>
     </row>
-    <row r="334" spans="1:23">
+    <row r="334" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A334">
         <f>IF(PasteValuesHere!A334&lt;&gt;"",PasteValuesHere!A334,"")</f>
         <v>330</v>
@@ -34302,7 +34302,7 @@
         <v/>
       </c>
     </row>
-    <row r="335" spans="1:23">
+    <row r="335" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A335">
         <f>IF(PasteValuesHere!A335&lt;&gt;"",PasteValuesHere!A335,"")</f>
         <v>331</v>
@@ -34392,7 +34392,7 @@
         <v/>
       </c>
     </row>
-    <row r="336" spans="1:23">
+    <row r="336" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A336">
         <f>IF(PasteValuesHere!A336&lt;&gt;"",PasteValuesHere!A336,"")</f>
         <v>332</v>
@@ -34482,7 +34482,7 @@
         <v/>
       </c>
     </row>
-    <row r="337" spans="1:23">
+    <row r="337" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A337">
         <f>IF(PasteValuesHere!A337&lt;&gt;"",PasteValuesHere!A337,"")</f>
         <v>333</v>
@@ -34572,7 +34572,7 @@
         <v/>
       </c>
     </row>
-    <row r="338" spans="1:23">
+    <row r="338" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A338">
         <f>IF(PasteValuesHere!A338&lt;&gt;"",PasteValuesHere!A338,"")</f>
         <v>334</v>
@@ -34662,7 +34662,7 @@
         <v/>
       </c>
     </row>
-    <row r="339" spans="1:23">
+    <row r="339" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A339">
         <f>IF(PasteValuesHere!A339&lt;&gt;"",PasteValuesHere!A339,"")</f>
         <v>335</v>
@@ -34752,7 +34752,7 @@
         <v/>
       </c>
     </row>
-    <row r="340" spans="1:23">
+    <row r="340" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A340">
         <f>IF(PasteValuesHere!A340&lt;&gt;"",PasteValuesHere!A340,"")</f>
         <v>336</v>
@@ -34842,7 +34842,7 @@
         <v/>
       </c>
     </row>
-    <row r="341" spans="1:23">
+    <row r="341" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A341">
         <f>IF(PasteValuesHere!A341&lt;&gt;"",PasteValuesHere!A341,"")</f>
         <v>337</v>
@@ -34932,7 +34932,7 @@
         <v/>
       </c>
     </row>
-    <row r="342" spans="1:23">
+    <row r="342" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A342">
         <f>IF(PasteValuesHere!A342&lt;&gt;"",PasteValuesHere!A342,"")</f>
         <v>338</v>
@@ -35022,7 +35022,7 @@
         <v/>
       </c>
     </row>
-    <row r="343" spans="1:23">
+    <row r="343" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A343">
         <f>IF(PasteValuesHere!A343&lt;&gt;"",PasteValuesHere!A343,"")</f>
         <v>339</v>
@@ -35112,7 +35112,7 @@
         <v/>
       </c>
     </row>
-    <row r="344" spans="1:23">
+    <row r="344" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A344">
         <f>IF(PasteValuesHere!A344&lt;&gt;"",PasteValuesHere!A344,"")</f>
         <v>340</v>
@@ -35202,7 +35202,7 @@
         <v/>
       </c>
     </row>
-    <row r="345" spans="1:23">
+    <row r="345" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A345">
         <f>IF(PasteValuesHere!A345&lt;&gt;"",PasteValuesHere!A345,"")</f>
         <v>341</v>
@@ -35292,7 +35292,7 @@
         <v/>
       </c>
     </row>
-    <row r="346" spans="1:23">
+    <row r="346" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A346">
         <f>IF(PasteValuesHere!A346&lt;&gt;"",PasteValuesHere!A346,"")</f>
         <v>342</v>
@@ -35382,7 +35382,7 @@
         <v/>
       </c>
     </row>
-    <row r="347" spans="1:23">
+    <row r="347" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A347">
         <f>IF(PasteValuesHere!A347&lt;&gt;"",PasteValuesHere!A347,"")</f>
         <v>343</v>
@@ -35472,7 +35472,7 @@
         <v/>
       </c>
     </row>
-    <row r="348" spans="1:23">
+    <row r="348" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A348">
         <f>IF(PasteValuesHere!A348&lt;&gt;"",PasteValuesHere!A348,"")</f>
         <v>344</v>
@@ -35562,7 +35562,7 @@
         <v/>
       </c>
     </row>
-    <row r="349" spans="1:23">
+    <row r="349" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A349">
         <f>IF(PasteValuesHere!A349&lt;&gt;"",PasteValuesHere!A349,"")</f>
         <v>345</v>
@@ -35652,7 +35652,7 @@
         <v/>
       </c>
     </row>
-    <row r="350" spans="1:23">
+    <row r="350" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A350">
         <f>IF(PasteValuesHere!A350&lt;&gt;"",PasteValuesHere!A350,"")</f>
         <v>346</v>
@@ -35742,7 +35742,7 @@
         <v/>
       </c>
     </row>
-    <row r="351" spans="1:23">
+    <row r="351" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A351">
         <f>IF(PasteValuesHere!A351&lt;&gt;"",PasteValuesHere!A351,"")</f>
         <v>347</v>
@@ -35832,7 +35832,7 @@
         <v/>
       </c>
     </row>
-    <row r="352" spans="1:23">
+    <row r="352" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A352">
         <f>IF(PasteValuesHere!A352&lt;&gt;"",PasteValuesHere!A352,"")</f>
         <v>348</v>
@@ -35922,7 +35922,7 @@
         <v/>
       </c>
     </row>
-    <row r="353" spans="1:23">
+    <row r="353" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A353">
         <f>IF(PasteValuesHere!A353&lt;&gt;"",PasteValuesHere!A353,"")</f>
         <v>349</v>
@@ -36012,7 +36012,7 @@
         <v/>
       </c>
     </row>
-    <row r="354" spans="1:23">
+    <row r="354" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A354">
         <f>IF(PasteValuesHere!A354&lt;&gt;"",PasteValuesHere!A354,"")</f>
         <v>350</v>
@@ -36102,7 +36102,7 @@
         <v/>
       </c>
     </row>
-    <row r="355" spans="1:23">
+    <row r="355" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A355">
         <f>IF(PasteValuesHere!A355&lt;&gt;"",PasteValuesHere!A355,"")</f>
         <v>351</v>
@@ -36192,7 +36192,7 @@
         <v/>
       </c>
     </row>
-    <row r="356" spans="1:23">
+    <row r="356" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A356">
         <f>IF(PasteValuesHere!A356&lt;&gt;"",PasteValuesHere!A356,"")</f>
         <v>352</v>
@@ -36282,7 +36282,7 @@
         <v/>
       </c>
     </row>
-    <row r="357" spans="1:23">
+    <row r="357" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A357">
         <f>IF(PasteValuesHere!A357&lt;&gt;"",PasteValuesHere!A357,"")</f>
         <v>353</v>
@@ -36372,7 +36372,7 @@
         <v/>
       </c>
     </row>
-    <row r="358" spans="1:23">
+    <row r="358" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A358">
         <f>IF(PasteValuesHere!A358&lt;&gt;"",PasteValuesHere!A358,"")</f>
         <v>354</v>
@@ -36462,7 +36462,7 @@
         <v/>
       </c>
     </row>
-    <row r="359" spans="1:23">
+    <row r="359" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A359">
         <f>IF(PasteValuesHere!A359&lt;&gt;"",PasteValuesHere!A359,"")</f>
         <v>355</v>
@@ -36552,7 +36552,7 @@
         <v/>
       </c>
     </row>
-    <row r="360" spans="1:23">
+    <row r="360" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A360">
         <f>IF(PasteValuesHere!A360&lt;&gt;"",PasteValuesHere!A360,"")</f>
         <v>356</v>
@@ -36642,7 +36642,7 @@
         <v/>
       </c>
     </row>
-    <row r="361" spans="1:23">
+    <row r="361" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A361">
         <f>IF(PasteValuesHere!A361&lt;&gt;"",PasteValuesHere!A361,"")</f>
         <v>357</v>
@@ -36732,7 +36732,7 @@
         <v/>
       </c>
     </row>
-    <row r="362" spans="1:23">
+    <row r="362" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A362">
         <f>IF(PasteValuesHere!A362&lt;&gt;"",PasteValuesHere!A362,"")</f>
         <v>358</v>
@@ -36822,7 +36822,7 @@
         <v/>
       </c>
     </row>
-    <row r="363" spans="1:23">
+    <row r="363" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A363">
         <f>IF(PasteValuesHere!A363&lt;&gt;"",PasteValuesHere!A363,"")</f>
         <v>359</v>
@@ -36912,7 +36912,7 @@
         <v/>
       </c>
     </row>
-    <row r="364" spans="1:23">
+    <row r="364" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A364">
         <f>IF(PasteValuesHere!A364&lt;&gt;"",PasteValuesHere!A364,"")</f>
         <v>360</v>
@@ -37002,7 +37002,7 @@
         <v/>
       </c>
     </row>
-    <row r="365" spans="1:23">
+    <row r="365" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A365">
         <f>IF(PasteValuesHere!A365&lt;&gt;"",PasteValuesHere!A365,"")</f>
         <v>361</v>
@@ -37092,7 +37092,7 @@
         <v/>
       </c>
     </row>
-    <row r="366" spans="1:23">
+    <row r="366" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A366">
         <f>IF(PasteValuesHere!A366&lt;&gt;"",PasteValuesHere!A366,"")</f>
         <v>362</v>
@@ -37182,7 +37182,7 @@
         <v/>
       </c>
     </row>
-    <row r="367" spans="1:23">
+    <row r="367" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A367">
         <f>IF(PasteValuesHere!A367&lt;&gt;"",PasteValuesHere!A367,"")</f>
         <v>363</v>
@@ -37272,7 +37272,7 @@
         <v/>
       </c>
     </row>
-    <row r="368" spans="1:23">
+    <row r="368" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A368">
         <f>IF(PasteValuesHere!A368&lt;&gt;"",PasteValuesHere!A368,"")</f>
         <v>364</v>
@@ -37362,7 +37362,7 @@
         <v/>
       </c>
     </row>
-    <row r="369" spans="1:23">
+    <row r="369" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A369">
         <f>IF(PasteValuesHere!A369&lt;&gt;"",PasteValuesHere!A369,"")</f>
         <v>365</v>
@@ -37452,7 +37452,7 @@
         <v/>
       </c>
     </row>
-    <row r="370" spans="1:23">
+    <row r="370" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A370">
         <f>IF(PasteValuesHere!A370&lt;&gt;"",PasteValuesHere!A370,"")</f>
         <v>366</v>
@@ -37542,7 +37542,7 @@
         <v/>
       </c>
     </row>
-    <row r="371" spans="1:23">
+    <row r="371" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A371">
         <f>IF(PasteValuesHere!A371&lt;&gt;"",PasteValuesHere!A371,"")</f>
         <v>367</v>
@@ -37632,7 +37632,7 @@
         <v/>
       </c>
     </row>
-    <row r="372" spans="1:23">
+    <row r="372" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A372">
         <f>IF(PasteValuesHere!A372&lt;&gt;"",PasteValuesHere!A372,"")</f>
         <v>368</v>
@@ -37722,7 +37722,7 @@
         <v/>
       </c>
     </row>
-    <row r="373" spans="1:23">
+    <row r="373" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A373">
         <f>IF(PasteValuesHere!A373&lt;&gt;"",PasteValuesHere!A373,"")</f>
         <v>369</v>
@@ -37812,7 +37812,7 @@
         <v/>
       </c>
     </row>
-    <row r="374" spans="1:23">
+    <row r="374" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A374">
         <f>IF(PasteValuesHere!A374&lt;&gt;"",PasteValuesHere!A374,"")</f>
         <v>370</v>
@@ -37902,7 +37902,7 @@
         <v/>
       </c>
     </row>
-    <row r="375" spans="1:23">
+    <row r="375" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A375">
         <f>IF(PasteValuesHere!A375&lt;&gt;"",PasteValuesHere!A375,"")</f>
         <v>371</v>
@@ -37992,7 +37992,7 @@
         <v/>
       </c>
     </row>
-    <row r="376" spans="1:23">
+    <row r="376" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A376">
         <f>IF(PasteValuesHere!A376&lt;&gt;"",PasteValuesHere!A376,"")</f>
         <v>372</v>
@@ -38082,7 +38082,7 @@
         <v/>
       </c>
     </row>
-    <row r="377" spans="1:23">
+    <row r="377" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A377">
         <f>IF(PasteValuesHere!A377&lt;&gt;"",PasteValuesHere!A377,"")</f>
         <v>373</v>
@@ -38172,7 +38172,7 @@
         <v/>
       </c>
     </row>
-    <row r="378" spans="1:23">
+    <row r="378" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A378">
         <f>IF(PasteValuesHere!A378&lt;&gt;"",PasteValuesHere!A378,"")</f>
         <v>374</v>
@@ -38262,7 +38262,7 @@
         <v/>
       </c>
     </row>
-    <row r="379" spans="1:23">
+    <row r="379" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A379">
         <f>IF(PasteValuesHere!A379&lt;&gt;"",PasteValuesHere!A379,"")</f>
         <v>375</v>
@@ -38352,7 +38352,7 @@
         <v/>
       </c>
     </row>
-    <row r="380" spans="1:23">
+    <row r="380" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A380">
         <f>IF(PasteValuesHere!A380&lt;&gt;"",PasteValuesHere!A380,"")</f>
         <v>376</v>
@@ -38442,7 +38442,7 @@
         <v/>
       </c>
     </row>
-    <row r="381" spans="1:23">
+    <row r="381" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A381">
         <f>IF(PasteValuesHere!A381&lt;&gt;"",PasteValuesHere!A381,"")</f>
         <v>377</v>
@@ -38532,7 +38532,7 @@
         <v/>
       </c>
     </row>
-    <row r="382" spans="1:23">
+    <row r="382" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A382">
         <f>IF(PasteValuesHere!A382&lt;&gt;"",PasteValuesHere!A382,"")</f>
         <v>378</v>
@@ -38622,7 +38622,7 @@
         <v/>
       </c>
     </row>
-    <row r="383" spans="1:23">
+    <row r="383" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A383">
         <f>IF(PasteValuesHere!A383&lt;&gt;"",PasteValuesHere!A383,"")</f>
         <v>379</v>
@@ -38712,7 +38712,7 @@
         <v/>
       </c>
     </row>
-    <row r="384" spans="1:23">
+    <row r="384" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A384">
         <f>IF(PasteValuesHere!A384&lt;&gt;"",PasteValuesHere!A384,"")</f>
         <v>380</v>
@@ -38802,7 +38802,7 @@
         <v/>
       </c>
     </row>
-    <row r="385" spans="1:23">
+    <row r="385" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A385">
         <f>IF(PasteValuesHere!A385&lt;&gt;"",PasteValuesHere!A385,"")</f>
         <v>381</v>
@@ -38892,7 +38892,7 @@
         <v/>
       </c>
     </row>
-    <row r="386" spans="1:23">
+    <row r="386" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A386">
         <f>IF(PasteValuesHere!A386&lt;&gt;"",PasteValuesHere!A386,"")</f>
         <v>382</v>
@@ -38982,7 +38982,7 @@
         <v/>
       </c>
     </row>
-    <row r="387" spans="1:23">
+    <row r="387" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A387">
         <f>IF(PasteValuesHere!A387&lt;&gt;"",PasteValuesHere!A387,"")</f>
         <v>383</v>
@@ -39072,7 +39072,7 @@
         <v/>
       </c>
     </row>
-    <row r="388" spans="1:23">
+    <row r="388" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A388">
         <f>IF(PasteValuesHere!A388&lt;&gt;"",PasteValuesHere!A388,"")</f>
         <v>384</v>
@@ -39162,7 +39162,7 @@
         <v/>
       </c>
     </row>
-    <row r="389" spans="1:23">
+    <row r="389" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A389">
         <f>IF(PasteValuesHere!A389&lt;&gt;"",PasteValuesHere!A389,"")</f>
         <v>385</v>
@@ -39252,7 +39252,7 @@
         <v/>
       </c>
     </row>
-    <row r="390" spans="1:23">
+    <row r="390" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A390">
         <f>IF(PasteValuesHere!A390&lt;&gt;"",PasteValuesHere!A390,"")</f>
         <v>386</v>
@@ -39342,7 +39342,7 @@
         <v/>
       </c>
     </row>
-    <row r="391" spans="1:23">
+    <row r="391" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A391">
         <f>IF(PasteValuesHere!A391&lt;&gt;"",PasteValuesHere!A391,"")</f>
         <v>387</v>
@@ -39432,7 +39432,7 @@
         <v/>
       </c>
     </row>
-    <row r="392" spans="1:23">
+    <row r="392" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A392">
         <f>IF(PasteValuesHere!A392&lt;&gt;"",PasteValuesHere!A392,"")</f>
         <v>388</v>
@@ -39522,7 +39522,7 @@
         <v/>
       </c>
     </row>
-    <row r="393" spans="1:23">
+    <row r="393" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A393">
         <f>IF(PasteValuesHere!A393&lt;&gt;"",PasteValuesHere!A393,"")</f>
         <v>389</v>
@@ -39612,7 +39612,7 @@
         <v/>
       </c>
     </row>
-    <row r="394" spans="1:23">
+    <row r="394" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A394">
         <f>IF(PasteValuesHere!A394&lt;&gt;"",PasteValuesHere!A394,"")</f>
         <v>390</v>
@@ -39702,7 +39702,7 @@
         <v/>
       </c>
     </row>
-    <row r="395" spans="1:23">
+    <row r="395" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A395">
         <f>IF(PasteValuesHere!A395&lt;&gt;"",PasteValuesHere!A395,"")</f>
         <v>391</v>
@@ -39792,7 +39792,7 @@
         <v/>
       </c>
     </row>
-    <row r="396" spans="1:23">
+    <row r="396" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A396">
         <f>IF(PasteValuesHere!A396&lt;&gt;"",PasteValuesHere!A396,"")</f>
         <v>392</v>
@@ -39882,7 +39882,7 @@
         <v/>
       </c>
     </row>
-    <row r="397" spans="1:23">
+    <row r="397" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A397">
         <f>IF(PasteValuesHere!A397&lt;&gt;"",PasteValuesHere!A397,"")</f>
         <v>393</v>
@@ -39972,7 +39972,7 @@
         <v/>
       </c>
     </row>
-    <row r="398" spans="1:23">
+    <row r="398" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A398">
         <f>IF(PasteValuesHere!A398&lt;&gt;"",PasteValuesHere!A398,"")</f>
         <v>394</v>
@@ -40062,7 +40062,7 @@
         <v/>
       </c>
     </row>
-    <row r="399" spans="1:23">
+    <row r="399" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A399">
         <f>IF(PasteValuesHere!A399&lt;&gt;"",PasteValuesHere!A399,"")</f>
         <v>395</v>
@@ -40152,7 +40152,7 @@
         <v/>
       </c>
     </row>
-    <row r="400" spans="1:23">
+    <row r="400" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A400">
         <f>IF(PasteValuesHere!A400&lt;&gt;"",PasteValuesHere!A400,"")</f>
         <v>396</v>
@@ -40242,7 +40242,7 @@
         <v/>
       </c>
     </row>
-    <row r="401" spans="1:23">
+    <row r="401" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A401">
         <f>IF(PasteValuesHere!A401&lt;&gt;"",PasteValuesHere!A401,"")</f>
         <v>397</v>
@@ -40332,7 +40332,7 @@
         <v/>
       </c>
     </row>
-    <row r="402" spans="1:23">
+    <row r="402" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A402">
         <f>IF(PasteValuesHere!A402&lt;&gt;"",PasteValuesHere!A402,"")</f>
         <v>398</v>
@@ -40422,7 +40422,7 @@
         <v/>
       </c>
     </row>
-    <row r="403" spans="1:23">
+    <row r="403" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A403">
         <f>IF(PasteValuesHere!A403&lt;&gt;"",PasteValuesHere!A403,"")</f>
         <v>399</v>
@@ -40512,7 +40512,7 @@
         <v/>
       </c>
     </row>
-    <row r="404" spans="1:23">
+    <row r="404" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A404">
         <f>IF(PasteValuesHere!A404&lt;&gt;"",PasteValuesHere!A404,"")</f>
         <v>400</v>
@@ -40612,95 +40612,95 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D627C20-3CD4-4D5C-B061-3FAD756DCC55}">
   <dimension ref="A1:B22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="37.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="15">
         <v>44669</v>
       </c>
       <c r="B2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="15">
         <v>44764</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="15"/>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="15"/>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="15"/>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="15"/>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="15"/>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="15"/>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="15"/>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="15"/>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="15"/>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="15"/>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="15"/>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="15"/>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="15"/>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="15"/>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="15"/>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="15"/>
     </row>
-    <row r="20" spans="1:1">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="15"/>
     </row>
-    <row r="21" spans="1:1">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="15"/>
     </row>
-    <row r="22" spans="1:1">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="15"/>
     </row>
   </sheetData>
@@ -40710,6 +40710,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100CC4D0E9D99E3494590878A131B0E1795" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="0ad4a17689799610c5aef023feb542aa">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="de7eecdc-97ae-4147-a3c1-a7e1ca38d908" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="522d425b0efcd79e1e01a7003beed7bb" ns3:_="">
     <xsd:import namespace="de7eecdc-97ae-4147-a3c1-a7e1ca38d908"/>
@@ -40841,12 +40847,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -40857,13 +40857,36 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{00A80597-EE1A-4928-92CA-B687F3CC765C}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{938448EF-52F2-4834-A3A7-1C0F0EAEBF43}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{938448EF-52F2-4834-A3A7-1C0F0EAEBF43}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{00A80597-EE1A-4928-92CA-B687F3CC765C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="de7eecdc-97ae-4147-a3c1-a7e1ca38d908"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{381DF054-EFCA-4D88-8DB9-15DBA900CEC9}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{381DF054-EFCA-4D88-8DB9-15DBA900CEC9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>